--- a/data/C_T/answer_rate.xlsx
+++ b/data/C_T/answer_rate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\BusinessCase\TP-Case\data\C_T\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F795B1-E59F-47FE-9253-4778F6DE98B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,11 +37,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,23 +93,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +440,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,11 +463,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43003</v>
       </c>
@@ -417,11 +477,11 @@
       <c r="C2">
         <v>64</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>35.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43004</v>
       </c>
@@ -431,11 +491,11 @@
       <c r="C3">
         <v>122</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>94.26229508196721</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43005</v>
       </c>
@@ -445,11 +505,11 @@
       <c r="C4">
         <v>140</v>
       </c>
-      <c r="D4">
-        <v>96.42857142857143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="4">
+        <v>96.428571428571431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43006</v>
       </c>
@@ -459,11 +519,11 @@
       <c r="C5">
         <v>129</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>91.47286821705427</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43007</v>
       </c>
@@ -473,11 +533,11 @@
       <c r="C6">
         <v>150</v>
       </c>
-      <c r="D6">
-        <v>96.66666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="4">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43010</v>
       </c>
@@ -487,11 +547,11 @@
       <c r="C7">
         <v>177</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>73.44632768361582</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43012</v>
       </c>
@@ -501,11 +561,11 @@
       <c r="C8">
         <v>264</v>
       </c>
-      <c r="D8">
-        <v>75.75757575757575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="4">
+        <v>75.757575757575751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43013</v>
       </c>
@@ -515,11 +575,11 @@
       <c r="C9">
         <v>178</v>
       </c>
-      <c r="D9">
-        <v>94.9438202247191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="4">
+        <v>94.943820224719104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43014</v>
       </c>
@@ -529,11 +589,11 @@
       <c r="C10">
         <v>193</v>
       </c>
-      <c r="D10">
-        <v>96.37305699481865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="4">
+        <v>96.373056994818654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43015</v>
       </c>
@@ -543,11 +603,11 @@
       <c r="C11">
         <v>116</v>
       </c>
-      <c r="D11">
-        <v>91.37931034482759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="4">
+        <v>91.379310344827587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43017</v>
       </c>
@@ -557,11 +617,11 @@
       <c r="C12">
         <v>240</v>
       </c>
-      <c r="D12">
-        <v>92.91666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="4">
+        <v>92.916666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43018</v>
       </c>
@@ -571,11 +631,11 @@
       <c r="C13">
         <v>184</v>
       </c>
-      <c r="D13">
-        <v>91.30434782608695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="4">
+        <v>91.304347826086953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43020</v>
       </c>
@@ -585,11 +645,11 @@
       <c r="C14">
         <v>160</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>94.375</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43021</v>
       </c>
@@ -599,11 +659,11 @@
       <c r="C15">
         <v>169</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>95.26627218934911</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43022</v>
       </c>
@@ -613,11 +673,11 @@
       <c r="C16">
         <v>100</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43024</v>
       </c>
@@ -627,11 +687,11 @@
       <c r="C17">
         <v>207</v>
       </c>
-      <c r="D17">
-        <v>91.78743961352657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="4">
+        <v>91.787439613526573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43025</v>
       </c>
@@ -641,11 +701,11 @@
       <c r="C18">
         <v>164</v>
       </c>
-      <c r="D18">
-        <v>95.1219512195122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="4">
+        <v>95.121951219512198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43026</v>
       </c>
@@ -655,11 +715,11 @@
       <c r="C19">
         <v>176</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>93.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43027</v>
       </c>
@@ -669,11 +729,11 @@
       <c r="C20">
         <v>171</v>
       </c>
-      <c r="D20">
-        <v>98.24561403508773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="4">
+        <v>98.245614035087726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43028</v>
       </c>
@@ -683,11 +743,11 @@
       <c r="C21">
         <v>166</v>
       </c>
-      <c r="D21">
-        <v>95.78313253012048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="4">
+        <v>95.783132530120483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43029</v>
       </c>
@@ -697,11 +757,11 @@
       <c r="C22">
         <v>108</v>
       </c>
-      <c r="D22">
-        <v>99.07407407407408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="4">
+        <v>99.074074074074076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43031</v>
       </c>
@@ -711,11 +771,11 @@
       <c r="C23">
         <v>222</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>95.49549549549549</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43032</v>
       </c>
@@ -725,11 +785,11 @@
       <c r="C24">
         <v>160</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>91.875</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43033</v>
       </c>
@@ -739,11 +799,11 @@
       <c r="C25">
         <v>177</v>
       </c>
-      <c r="D25">
-        <v>96.61016949152543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="4">
+        <v>96.610169491525426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43034</v>
       </c>
@@ -753,11 +813,11 @@
       <c r="C26">
         <v>178</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43035</v>
       </c>
@@ -767,11 +827,11 @@
       <c r="C27">
         <v>200</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43036</v>
       </c>
@@ -781,11 +841,11 @@
       <c r="C28">
         <v>107</v>
       </c>
-      <c r="D28">
-        <v>99.06542056074767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="4">
+        <v>99.065420560747668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43038</v>
       </c>
@@ -795,11 +855,11 @@
       <c r="C29">
         <v>236</v>
       </c>
-      <c r="D29">
-        <v>83.89830508474576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="4">
+        <v>83.898305084745758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43040</v>
       </c>
@@ -809,11 +869,11 @@
       <c r="C30">
         <v>122</v>
       </c>
-      <c r="D30">
-        <v>99.18032786885246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="4">
+        <v>99.180327868852459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43041</v>
       </c>
@@ -823,11 +883,11 @@
       <c r="C31">
         <v>236</v>
       </c>
-      <c r="D31">
-        <v>97.45762711864407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="4">
+        <v>97.457627118644069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43042</v>
       </c>
@@ -837,11 +897,11 @@
       <c r="C32">
         <v>230</v>
       </c>
-      <c r="D32">
-        <v>91.30434782608695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="4">
+        <v>91.304347826086953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43043</v>
       </c>
@@ -851,11 +911,11 @@
       <c r="C33">
         <v>145</v>
       </c>
-      <c r="D33">
-        <v>95.17241379310344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="4">
+        <v>95.172413793103445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43047</v>
       </c>
@@ -865,11 +925,11 @@
       <c r="C34">
         <v>149</v>
       </c>
-      <c r="D34">
-        <v>91.94630872483222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="4">
+        <v>91.946308724832221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43048</v>
       </c>
@@ -879,11 +939,11 @@
       <c r="C35">
         <v>134</v>
       </c>
-      <c r="D35">
-        <v>92.53731343283582</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="4">
+        <v>92.537313432835816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43049</v>
       </c>
@@ -893,11 +953,11 @@
       <c r="C36">
         <v>141</v>
       </c>
-      <c r="D36">
-        <v>92.90780141843972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="4">
+        <v>92.907801418439718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43050</v>
       </c>
@@ -907,11 +967,11 @@
       <c r="C37">
         <v>92</v>
       </c>
-      <c r="D37">
-        <v>72.82608695652173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="4">
+        <v>72.826086956521735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43052</v>
       </c>
@@ -921,11 +981,11 @@
       <c r="C38">
         <v>192</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>92.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43053</v>
       </c>
@@ -935,11 +995,11 @@
       <c r="C39">
         <v>163</v>
       </c>
-      <c r="D39">
-        <v>95.70552147239263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="4">
+        <v>95.705521472392633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43054</v>
       </c>
@@ -949,11 +1009,11 @@
       <c r="C40">
         <v>320</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>99.375</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43055</v>
       </c>
@@ -963,11 +1023,11 @@
       <c r="C41">
         <v>300</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43056</v>
       </c>
@@ -977,11 +1037,11 @@
       <c r="C42">
         <v>232</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>89.65517241379311</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43057</v>
       </c>
@@ -991,11 +1051,11 @@
       <c r="C43">
         <v>168</v>
       </c>
-      <c r="D43">
-        <v>59.52380952380953</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="4">
+        <v>59.523809523809533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43059</v>
       </c>
@@ -1005,11 +1065,11 @@
       <c r="C44">
         <v>310</v>
       </c>
-      <c r="D44">
-        <v>65.48387096774194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="4">
+        <v>65.483870967741936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43060</v>
       </c>
@@ -1019,11 +1079,11 @@
       <c r="C45">
         <v>342</v>
       </c>
-      <c r="D45">
-        <v>61.98830409356725</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="4">
+        <v>61.988304093567251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43061</v>
       </c>
@@ -1033,11 +1093,11 @@
       <c r="C46">
         <v>215</v>
       </c>
-      <c r="D46">
-        <v>88.37209302325581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="4">
+        <v>88.372093023255815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43062</v>
       </c>
@@ -1047,11 +1107,11 @@
       <c r="C47">
         <v>253</v>
       </c>
-      <c r="D47">
-        <v>87.35177865612648</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="4">
+        <v>87.351778656126484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43063</v>
       </c>
@@ -1061,11 +1121,11 @@
       <c r="C48">
         <v>298</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>84.56375838926175</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43064</v>
       </c>
@@ -1075,11 +1135,11 @@
       <c r="C49">
         <v>173</v>
       </c>
-      <c r="D49">
-        <v>72.83236994219654</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="4">
+        <v>72.832369942196536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43066</v>
       </c>
@@ -1089,11 +1149,11 @@
       <c r="C50">
         <v>280</v>
       </c>
-      <c r="D50">
-        <v>90.35714285714286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="4">
+        <v>90.357142857142861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43067</v>
       </c>
@@ -1103,11 +1163,11 @@
       <c r="C51">
         <v>322</v>
       </c>
-      <c r="D51">
-        <v>95.34161490683231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="4">
+        <v>95.341614906832305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43068</v>
       </c>
@@ -1117,11 +1177,11 @@
       <c r="C52">
         <v>341</v>
       </c>
-      <c r="D52">
-        <v>94.42815249266862</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52" s="4">
+        <v>94.428152492668616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43069</v>
       </c>
@@ -1131,11 +1191,11 @@
       <c r="C53">
         <v>257</v>
       </c>
-      <c r="D53">
-        <v>98.83268482490273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="4">
+        <v>98.832684824902728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43070</v>
       </c>
@@ -1145,11 +1205,11 @@
       <c r="C54">
         <v>286</v>
       </c>
-      <c r="D54">
-        <v>97.90209790209791</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="4">
+        <v>97.902097902097907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43071</v>
       </c>
@@ -1159,11 +1219,11 @@
       <c r="C55">
         <v>185</v>
       </c>
-      <c r="D55">
-        <v>72.97297297297297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="4">
+        <v>72.972972972972968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43073</v>
       </c>
@@ -1173,11 +1233,11 @@
       <c r="C56">
         <v>554</v>
       </c>
-      <c r="D56">
-        <v>73.64620938628158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56" s="4">
+        <v>73.646209386281583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43074</v>
       </c>
@@ -1187,11 +1247,11 @@
       <c r="C57">
         <v>413</v>
       </c>
-      <c r="D57">
-        <v>97.57869249394673</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57" s="4">
+        <v>97.578692493946733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43075</v>
       </c>
@@ -1201,11 +1261,11 @@
       <c r="C58">
         <v>333</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43076</v>
       </c>
@@ -1215,11 +1275,11 @@
       <c r="C59">
         <v>370</v>
       </c>
-      <c r="D59">
-        <v>99.45945945945945</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="4">
+        <v>99.459459459459453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43077</v>
       </c>
@@ -1229,11 +1289,11 @@
       <c r="C60">
         <v>319</v>
       </c>
-      <c r="D60">
-        <v>98.43260188087774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="4">
+        <v>98.432601880877741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43078</v>
       </c>
@@ -1243,11 +1303,11 @@
       <c r="C61">
         <v>181</v>
       </c>
-      <c r="D61">
-        <v>91.16022099447514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="4">
+        <v>91.160220994475139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43080</v>
       </c>
@@ -1257,11 +1317,11 @@
       <c r="C62">
         <v>450</v>
       </c>
-      <c r="D62">
-        <v>95.11111111111111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="4">
+        <v>95.111111111111114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43081</v>
       </c>
@@ -1271,11 +1331,11 @@
       <c r="C63">
         <v>357</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>97.47899159663865</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43082</v>
       </c>
@@ -1285,11 +1345,11 @@
       <c r="C64">
         <v>350</v>
       </c>
-      <c r="D64">
-        <v>98.28571428571429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="4">
+        <v>98.285714285714292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43083</v>
       </c>
@@ -1299,11 +1359,11 @@
       <c r="C65">
         <v>351</v>
       </c>
-      <c r="D65">
-        <v>97.43589743589743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="D65" s="4">
+        <v>97.435897435897431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43084</v>
       </c>
@@ -1313,11 +1373,11 @@
       <c r="C66">
         <v>343</v>
       </c>
-      <c r="D66">
-        <v>97.08454810495627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="4">
+        <v>97.084548104956269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43085</v>
       </c>
@@ -1327,11 +1387,11 @@
       <c r="C67">
         <v>178</v>
       </c>
-      <c r="D67">
-        <v>85.3932584269663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="4">
+        <v>85.393258426966298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43087</v>
       </c>
@@ -1341,11 +1401,11 @@
       <c r="C68">
         <v>536</v>
       </c>
-      <c r="D68">
-        <v>88.43283582089552</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="4">
+        <v>88.432835820895519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43088</v>
       </c>
@@ -1355,11 +1415,11 @@
       <c r="C69">
         <v>431</v>
       </c>
-      <c r="D69">
-        <v>93.96751740139212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="4">
+        <v>93.967517401392115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43089</v>
       </c>
@@ -1369,11 +1429,11 @@
       <c r="C70">
         <v>414</v>
       </c>
-      <c r="D70">
-        <v>92.02898550724638</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="4">
+        <v>92.028985507246375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43090</v>
       </c>
@@ -1383,11 +1443,11 @@
       <c r="C71">
         <v>359</v>
       </c>
-      <c r="D71">
-        <v>93.59331476323119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="4">
+        <v>93.593314763231191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43091</v>
       </c>
@@ -1397,11 +1457,11 @@
       <c r="C72">
         <v>304</v>
       </c>
-      <c r="D72">
-        <v>88.48684210526316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="4">
+        <v>88.486842105263165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43092</v>
       </c>
@@ -1411,11 +1471,11 @@
       <c r="C73">
         <v>117</v>
       </c>
-      <c r="D73">
-        <v>94.87179487179488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="4">
+        <v>94.871794871794876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43096</v>
       </c>
@@ -1425,11 +1485,11 @@
       <c r="C74">
         <v>533</v>
       </c>
-      <c r="D74">
-        <v>41.65103189493433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="4">
+        <v>41.651031894934327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43097</v>
       </c>
@@ -1439,11 +1499,11 @@
       <c r="C75">
         <v>445</v>
       </c>
-      <c r="D75">
-        <v>86.51685393258427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" s="4">
+        <v>86.516853932584269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43098</v>
       </c>
@@ -1453,11 +1513,11 @@
       <c r="C76">
         <v>399</v>
       </c>
-      <c r="D76">
-        <v>81.45363408521304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76" s="4">
+        <v>81.453634085213039</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43099</v>
       </c>
@@ -1467,11 +1527,11 @@
       <c r="C77">
         <v>154</v>
       </c>
-      <c r="D77">
-        <v>79.22077922077922</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="4">
+        <v>79.220779220779221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43102</v>
       </c>
@@ -1481,11 +1541,11 @@
       <c r="C78">
         <v>496</v>
       </c>
-      <c r="D78">
-        <v>69.35483870967742</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" s="4">
+        <v>69.354838709677423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43103</v>
       </c>
@@ -1495,11 +1555,11 @@
       <c r="C79">
         <v>420</v>
       </c>
-      <c r="D79">
-        <v>87.85714285714286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="4">
+        <v>87.857142857142861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43104</v>
       </c>
@@ -1509,11 +1569,11 @@
       <c r="C80">
         <v>359</v>
       </c>
-      <c r="D80">
-        <v>84.40111420612813</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="4">
+        <v>84.401114206128128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43105</v>
       </c>
@@ -1523,11 +1583,11 @@
       <c r="C81">
         <v>341</v>
       </c>
-      <c r="D81">
-        <v>93.25513196480938</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81" s="4">
+        <v>93.255131964809379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43106</v>
       </c>
@@ -1537,11 +1597,11 @@
       <c r="C82">
         <v>170</v>
       </c>
-      <c r="D82">
-        <v>84.11764705882354</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="4">
+        <v>84.117647058823536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43108</v>
       </c>
@@ -1551,11 +1611,11 @@
       <c r="C83">
         <v>440</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="4">
         <v>88.86363636363636</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43109</v>
       </c>
@@ -1565,11 +1625,11 @@
       <c r="C84">
         <v>374</v>
       </c>
-      <c r="D84">
-        <v>96.524064171123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="D84" s="4">
+        <v>96.524064171123001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43110</v>
       </c>
@@ -1579,11 +1639,11 @@
       <c r="C85">
         <v>345</v>
       </c>
-      <c r="D85">
-        <v>93.91304347826087</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="4">
+        <v>93.913043478260875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43111</v>
       </c>
@@ -1593,11 +1653,11 @@
       <c r="C86">
         <v>311</v>
       </c>
-      <c r="D86">
-        <v>99.67845659163987</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="D86" s="4">
+        <v>99.678456591639872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43112</v>
       </c>
@@ -1607,11 +1667,11 @@
       <c r="C87">
         <v>277</v>
       </c>
-      <c r="D87">
-        <v>97.83393501805054</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" s="4">
+        <v>97.833935018050539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43113</v>
       </c>
@@ -1621,11 +1681,11 @@
       <c r="C88">
         <v>174</v>
       </c>
-      <c r="D88">
-        <v>72.98850574712644</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="4">
+        <v>72.988505747126439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43115</v>
       </c>
@@ -1635,11 +1695,11 @@
       <c r="C89">
         <v>381</v>
       </c>
-      <c r="D89">
-        <v>95.2755905511811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" s="4">
+        <v>95.275590551181097</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43116</v>
       </c>
@@ -1649,11 +1709,11 @@
       <c r="C90">
         <v>318</v>
       </c>
-      <c r="D90">
-        <v>99.05660377358491</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="D90" s="4">
+        <v>99.056603773584911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43117</v>
       </c>
@@ -1663,11 +1723,11 @@
       <c r="C91">
         <v>292</v>
       </c>
-      <c r="D91">
-        <v>97.94520547945206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="D91" s="4">
+        <v>97.945205479452056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43118</v>
       </c>
@@ -1677,11 +1737,11 @@
       <c r="C92">
         <v>259</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43119</v>
       </c>
@@ -1691,11 +1751,11 @@
       <c r="C93">
         <v>301</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="4">
         <v>96.34551495016612</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43120</v>
       </c>
@@ -1705,11 +1765,11 @@
       <c r="C94">
         <v>143</v>
       </c>
-      <c r="D94">
-        <v>99.30069930069931</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="D94" s="4">
+        <v>99.300699300699307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43122</v>
       </c>
@@ -1719,11 +1779,11 @@
       <c r="C95">
         <v>353</v>
       </c>
-      <c r="D95">
-        <v>97.1671388101983</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="D95" s="4">
+        <v>97.167138810198296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43123</v>
       </c>
@@ -1733,11 +1793,11 @@
       <c r="C96">
         <v>279</v>
       </c>
-      <c r="D96">
-        <v>98.5663082437276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="4">
+        <v>98.566308243727605</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43124</v>
       </c>
@@ -1747,11 +1807,11 @@
       <c r="C97">
         <v>268</v>
       </c>
-      <c r="D97">
-        <v>97.76119402985074</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="D97" s="4">
+        <v>97.761194029850742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -1761,11 +1821,11 @@
       <c r="C98">
         <v>269</v>
       </c>
-      <c r="D98">
-        <v>99.62825278810409</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="D98" s="4">
+        <v>99.628252788104092</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43126</v>
       </c>
@@ -1775,11 +1835,11 @@
       <c r="C99">
         <v>257</v>
       </c>
-      <c r="D99">
-        <v>99.61089494163424</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="D99" s="4">
+        <v>99.610894941634243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43127</v>
       </c>
@@ -1789,11 +1849,11 @@
       <c r="C100">
         <v>127</v>
       </c>
-      <c r="D100">
-        <v>81.88976377952756</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="4">
+        <v>81.889763779527556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43129</v>
       </c>
@@ -1803,11 +1863,11 @@
       <c r="C101">
         <v>308</v>
       </c>
-      <c r="D101">
-        <v>98.37662337662337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="D101" s="4">
+        <v>98.376623376623371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43130</v>
       </c>
@@ -1817,11 +1877,11 @@
       <c r="C102">
         <v>245</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43131</v>
       </c>
@@ -1831,11 +1891,11 @@
       <c r="C103">
         <v>235</v>
       </c>
-      <c r="D103">
-        <v>99.57446808510639</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="D103" s="4">
+        <v>99.574468085106389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43132</v>
       </c>
@@ -1845,11 +1905,11 @@
       <c r="C104">
         <v>259</v>
       </c>
-      <c r="D104">
-        <v>98.84169884169884</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="D104" s="4">
+        <v>98.841698841698843</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43133</v>
       </c>
@@ -1859,11 +1919,11 @@
       <c r="C105">
         <v>254</v>
       </c>
-      <c r="D105">
-        <v>96.85039370078741</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="D105" s="4">
+        <v>96.850393700787407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43134</v>
       </c>
@@ -1873,11 +1933,11 @@
       <c r="C106">
         <v>129</v>
       </c>
-      <c r="D106">
-        <v>65.11627906976744</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="D106" s="4">
+        <v>65.116279069767444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43136</v>
       </c>
@@ -1887,11 +1947,11 @@
       <c r="C107">
         <v>295</v>
       </c>
-      <c r="D107">
-        <v>96.61016949152543</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="D107" s="4">
+        <v>96.610169491525426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43137</v>
       </c>
@@ -1901,11 +1961,11 @@
       <c r="C108">
         <v>215</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="4">
         <v>97.20930232558139</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43138</v>
       </c>
@@ -1915,11 +1975,11 @@
       <c r="C109">
         <v>203</v>
       </c>
-      <c r="D109">
-        <v>99.01477832512315</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="D109" s="4">
+        <v>99.014778325123146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43139</v>
       </c>
@@ -1929,11 +1989,11 @@
       <c r="C110">
         <v>224</v>
       </c>
-      <c r="D110">
-        <v>99.55357142857143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="D110" s="4">
+        <v>99.553571428571431</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43140</v>
       </c>
@@ -1943,11 +2003,11 @@
       <c r="C111">
         <v>165</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43141</v>
       </c>
@@ -1957,11 +2017,11 @@
       <c r="C112">
         <v>106</v>
       </c>
-      <c r="D112">
-        <v>93.39622641509433</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="D112" s="4">
+        <v>93.396226415094333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43143</v>
       </c>
@@ -1971,11 +2031,11 @@
       <c r="C113">
         <v>281</v>
       </c>
-      <c r="D113">
-        <v>95.72953736654804</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="D113" s="4">
+        <v>95.729537366548044</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43144</v>
       </c>
@@ -1985,11 +2045,11 @@
       <c r="C114">
         <v>226</v>
       </c>
-      <c r="D114">
-        <v>99.11504424778761</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="D114" s="4">
+        <v>99.115044247787608</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43145</v>
       </c>
@@ -1999,11 +2059,11 @@
       <c r="C115">
         <v>215</v>
       </c>
-      <c r="D115">
-        <v>95.81395348837209</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="D115" s="4">
+        <v>95.813953488372093</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43146</v>
       </c>
@@ -2013,11 +2073,11 @@
       <c r="C116">
         <v>208</v>
       </c>
-      <c r="D116">
-        <v>99.51923076923077</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="D116" s="4">
+        <v>99.519230769230774</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43147</v>
       </c>
@@ -2027,11 +2087,11 @@
       <c r="C117">
         <v>220</v>
       </c>
-      <c r="D117">
-        <v>99.09090909090909</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="D117" s="4">
+        <v>99.090909090909093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43148</v>
       </c>
@@ -2041,11 +2101,11 @@
       <c r="C118">
         <v>121</v>
       </c>
-      <c r="D118">
-        <v>98.34710743801652</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="D118" s="4">
+        <v>98.347107438016522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43150</v>
       </c>
@@ -2055,11 +2115,11 @@
       <c r="C119">
         <v>262</v>
       </c>
-      <c r="D119">
-        <v>95.03816793893129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="D119" s="4">
+        <v>95.038167938931295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43151</v>
       </c>
@@ -2069,11 +2129,11 @@
       <c r="C120">
         <v>215</v>
       </c>
-      <c r="D120">
-        <v>98.6046511627907</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="D120" s="4">
+        <v>98.604651162790702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43152</v>
       </c>
@@ -2083,11 +2143,11 @@
       <c r="C121">
         <v>191</v>
       </c>
-      <c r="D121">
-        <v>98.95287958115183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="D121" s="4">
+        <v>98.952879581151834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43153</v>
       </c>
@@ -2097,11 +2157,11 @@
       <c r="C122">
         <v>173</v>
       </c>
-      <c r="D122">
-        <v>98.26589595375722</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="D122" s="4">
+        <v>98.265895953757223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43154</v>
       </c>
@@ -2111,11 +2171,11 @@
       <c r="C123">
         <v>206</v>
       </c>
-      <c r="D123">
-        <v>92.23300970873787</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="D123" s="4">
+        <v>92.233009708737868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43155</v>
       </c>
@@ -2125,11 +2185,11 @@
       <c r="C124">
         <v>124</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="4">
         <v>97.58064516129032</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43157</v>
       </c>
@@ -2139,11 +2199,11 @@
       <c r="C125">
         <v>274</v>
       </c>
-      <c r="D125">
-        <v>96.35036496350365</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125" s="4">
+        <v>96.350364963503651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43158</v>
       </c>
@@ -2153,11 +2213,11 @@
       <c r="C126">
         <v>255</v>
       </c>
-      <c r="D126">
-        <v>97.64705882352941</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126" s="4">
+        <v>97.647058823529406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43159</v>
       </c>
@@ -2167,11 +2227,11 @@
       <c r="C127">
         <v>234</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43160</v>
       </c>
@@ -2181,11 +2241,11 @@
       <c r="C128">
         <v>207</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43161</v>
       </c>
@@ -2195,11 +2255,11 @@
       <c r="C129">
         <v>246</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43162</v>
       </c>
@@ -2209,11 +2269,11 @@
       <c r="C130">
         <v>117</v>
       </c>
-      <c r="D130">
-        <v>78.63247863247864</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="D130" s="4">
+        <v>78.632478632478637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43164</v>
       </c>
@@ -2223,11 +2283,11 @@
       <c r="C131">
         <v>254</v>
       </c>
-      <c r="D131">
-        <v>99.60629921259843</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131" s="4">
+        <v>99.606299212598429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43165</v>
       </c>
@@ -2237,11 +2297,11 @@
       <c r="C132">
         <v>232</v>
       </c>
-      <c r="D132">
-        <v>98.27586206896552</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="D132" s="4">
+        <v>98.275862068965523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43166</v>
       </c>
@@ -2251,11 +2311,11 @@
       <c r="C133">
         <v>192</v>
       </c>
-      <c r="D133">
-        <v>99.47916666666667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="D133" s="4">
+        <v>99.479166666666671</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43167</v>
       </c>
@@ -2265,11 +2325,11 @@
       <c r="C134">
         <v>250</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="4">
         <v>98.8</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43168</v>
       </c>
@@ -2279,11 +2339,11 @@
       <c r="C135">
         <v>213</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="4">
         <v>99.53051643192488</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43169</v>
       </c>
@@ -2293,11 +2353,11 @@
       <c r="C136">
         <v>126</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="4">
         <v>52.38095238095238</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43171</v>
       </c>
@@ -2307,11 +2367,11 @@
       <c r="C137">
         <v>288</v>
       </c>
-      <c r="D137">
-        <v>99.30555555555556</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="D137" s="4">
+        <v>99.305555555555557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43172</v>
       </c>
@@ -2321,11 +2381,11 @@
       <c r="C138">
         <v>204</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43173</v>
       </c>
@@ -2335,11 +2395,11 @@
       <c r="C139">
         <v>222</v>
       </c>
-      <c r="D139">
-        <v>99.54954954954955</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="D139" s="4">
+        <v>99.549549549549553</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43174</v>
       </c>
@@ -2349,11 +2409,11 @@
       <c r="C140">
         <v>182</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43175</v>
       </c>
@@ -2363,11 +2423,11 @@
       <c r="C141">
         <v>208</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43176</v>
       </c>
@@ -2377,11 +2437,11 @@
       <c r="C142">
         <v>95</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="4">
         <v>98.94736842105263</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43178</v>
       </c>
@@ -2391,11 +2451,11 @@
       <c r="C143">
         <v>268</v>
       </c>
-      <c r="D143">
-        <v>99.6268656716418</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="D143" s="4">
+        <v>99.626865671641795</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43179</v>
       </c>
@@ -2405,11 +2465,11 @@
       <c r="C144">
         <v>190</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43180</v>
       </c>
@@ -2419,11 +2479,11 @@
       <c r="C145">
         <v>198</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="4">
         <v>98.98989898989899</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43181</v>
       </c>
@@ -2433,11 +2493,11 @@
       <c r="C146">
         <v>216</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43182</v>
       </c>
@@ -2447,11 +2507,11 @@
       <c r="C147">
         <v>187</v>
       </c>
-      <c r="D147">
-        <v>99.46524064171123</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="D147" s="4">
+        <v>99.465240641711233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43183</v>
       </c>
@@ -2461,11 +2521,11 @@
       <c r="C148">
         <v>98</v>
       </c>
-      <c r="D148">
-        <v>97.95918367346938</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="D148" s="4">
+        <v>97.959183673469383</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43185</v>
       </c>
@@ -2475,11 +2535,11 @@
       <c r="C149">
         <v>250</v>
       </c>
-      <c r="D149">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="D149" s="4">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43186</v>
       </c>
@@ -2489,11 +2549,11 @@
       <c r="C150">
         <v>195</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43187</v>
       </c>
@@ -2503,11 +2563,11 @@
       <c r="C151">
         <v>209</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43188</v>
       </c>
@@ -2517,11 +2577,11 @@
       <c r="C152">
         <v>173</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43190</v>
       </c>
@@ -2531,11 +2591,11 @@
       <c r="C153">
         <v>97</v>
       </c>
-      <c r="D153">
-        <v>98.96907216494846</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="D153" s="4">
+        <v>98.969072164948457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43193</v>
       </c>
@@ -2545,11 +2605,11 @@
       <c r="C154">
         <v>284</v>
       </c>
-      <c r="D154">
-        <v>95.4225352112676</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="D154" s="4">
+        <v>95.422535211267601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43194</v>
       </c>
@@ -2559,11 +2619,11 @@
       <c r="C155">
         <v>216</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43195</v>
       </c>
@@ -2573,11 +2633,11 @@
       <c r="C156">
         <v>212</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43196</v>
       </c>
@@ -2587,11 +2647,11 @@
       <c r="C157">
         <v>218</v>
       </c>
-      <c r="D157">
-        <v>99.54128440366972</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="D157" s="4">
+        <v>99.541284403669721</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43197</v>
       </c>
@@ -2601,11 +2661,11 @@
       <c r="C158">
         <v>101</v>
       </c>
-      <c r="D158">
-        <v>93.06930693069307</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="D158" s="4">
+        <v>93.069306930693074</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43199</v>
       </c>
@@ -2615,11 +2675,11 @@
       <c r="C159">
         <v>209</v>
       </c>
-      <c r="D159">
-        <v>98.56459330143541</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="D159" s="4">
+        <v>98.564593301435409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43200</v>
       </c>
@@ -2629,11 +2689,11 @@
       <c r="C160">
         <v>183</v>
       </c>
-      <c r="D160">
-        <v>98.90710382513662</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="D160" s="4">
+        <v>98.907103825136616</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43201</v>
       </c>
@@ -2643,11 +2703,11 @@
       <c r="C161">
         <v>197</v>
       </c>
-      <c r="D161">
-        <v>98.98477157360406</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="D161" s="4">
+        <v>98.984771573604064</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43202</v>
       </c>
@@ -2657,11 +2717,11 @@
       <c r="C162">
         <v>192</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43203</v>
       </c>
@@ -2671,11 +2731,11 @@
       <c r="C163">
         <v>212</v>
       </c>
-      <c r="D163">
-        <v>98.58490566037736</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="D163" s="4">
+        <v>98.584905660377359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43204</v>
       </c>
@@ -2685,11 +2745,11 @@
       <c r="C164">
         <v>111</v>
       </c>
-      <c r="D164">
-        <v>97.29729729729729</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="D164" s="4">
+        <v>97.297297297297291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43206</v>
       </c>
@@ -2699,11 +2759,11 @@
       <c r="C165">
         <v>243</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="4">
         <v>97.53086419753086</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43207</v>
       </c>
@@ -2713,11 +2773,11 @@
       <c r="C166">
         <v>205</v>
       </c>
-      <c r="D166">
-        <v>99.02439024390245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="D166" s="4">
+        <v>99.024390243902445</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43208</v>
       </c>
@@ -2727,11 +2787,11 @@
       <c r="C167">
         <v>191</v>
       </c>
-      <c r="D167">
-        <v>98.95287958115183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="D167" s="4">
+        <v>98.952879581151834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43209</v>
       </c>
@@ -2741,11 +2801,11 @@
       <c r="C168">
         <v>207</v>
       </c>
-      <c r="D168">
-        <v>99.51690821256038</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="D168" s="4">
+        <v>99.516908212560381</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43210</v>
       </c>
@@ -2755,11 +2815,11 @@
       <c r="C169">
         <v>171</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43211</v>
       </c>
@@ -2769,11 +2829,11 @@
       <c r="C170">
         <v>91</v>
       </c>
-      <c r="D170">
-        <v>95.60439560439561</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="D170" s="4">
+        <v>95.604395604395606</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43213</v>
       </c>
@@ -2783,11 +2843,11 @@
       <c r="C171">
         <v>220</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43214</v>
       </c>
@@ -2797,11 +2857,11 @@
       <c r="C172">
         <v>224</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43215</v>
       </c>
@@ -2811,11 +2871,11 @@
       <c r="C173">
         <v>175</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43216</v>
       </c>
@@ -2825,11 +2885,11 @@
       <c r="C174">
         <v>168</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43217</v>
       </c>
@@ -2839,11 +2899,11 @@
       <c r="C175">
         <v>188</v>
       </c>
-      <c r="D175">
-        <v>99.46808510638297</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="D175" s="4">
+        <v>99.468085106382972</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43218</v>
       </c>
@@ -2853,11 +2913,11 @@
       <c r="C176">
         <v>79</v>
       </c>
-      <c r="D176">
-        <v>96.20253164556962</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="D176" s="4">
+        <v>96.202531645569621</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43220</v>
       </c>
@@ -2867,11 +2927,11 @@
       <c r="C177">
         <v>218</v>
       </c>
-      <c r="D177">
-        <v>99.08256880733946</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="D177" s="4">
+        <v>99.082568807339456</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43222</v>
       </c>
@@ -2881,11 +2941,11 @@
       <c r="C178">
         <v>194</v>
       </c>
-      <c r="D178">
-        <v>98.96907216494846</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="D178" s="4">
+        <v>98.969072164948457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43223</v>
       </c>
@@ -2895,11 +2955,11 @@
       <c r="C179">
         <v>162</v>
       </c>
-      <c r="D179">
-        <v>93.20987654320987</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="D179" s="4">
+        <v>93.209876543209873</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43224</v>
       </c>
@@ -2909,11 +2969,11 @@
       <c r="C180">
         <v>210</v>
       </c>
-      <c r="D180">
-        <v>99.04761904761905</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="D180" s="4">
+        <v>99.047619047619051</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43225</v>
       </c>
@@ -2923,11 +2983,11 @@
       <c r="C181">
         <v>85</v>
       </c>
-      <c r="D181">
-        <v>96.47058823529412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="D181" s="4">
+        <v>96.470588235294116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43227</v>
       </c>
@@ -2937,11 +2997,11 @@
       <c r="C182">
         <v>254</v>
       </c>
-      <c r="D182">
-        <v>66.14173228346456</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="D182" s="4">
+        <v>66.141732283464563</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43228</v>
       </c>
@@ -2951,11 +3011,11 @@
       <c r="C183">
         <v>213</v>
       </c>
-      <c r="D183">
-        <v>96.24413145539906</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="D183" s="4">
+        <v>96.244131455399057</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43229</v>
       </c>
@@ -2965,11 +3025,11 @@
       <c r="C184">
         <v>207</v>
       </c>
-      <c r="D184">
-        <v>90.82125603864735</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="D184" s="4">
+        <v>90.821256038647348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43230</v>
       </c>
@@ -2979,11 +3039,11 @@
       <c r="C185">
         <v>0</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43231</v>
       </c>
@@ -2993,11 +3053,11 @@
       <c r="C186">
         <v>302</v>
       </c>
-      <c r="D186">
-        <v>71.52317880794702</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="D186" s="4">
+        <v>71.523178807947019</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43232</v>
       </c>
@@ -3007,11 +3067,11 @@
       <c r="C187">
         <v>82</v>
       </c>
-      <c r="D187">
-        <v>93.90243902439025</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="D187" s="4">
+        <v>93.902439024390247</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43234</v>
       </c>
@@ -3021,11 +3081,11 @@
       <c r="C188">
         <v>309</v>
       </c>
-      <c r="D188">
-        <v>35.27508090614887</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="D188" s="4">
+        <v>35.275080906148872</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43235</v>
       </c>
@@ -3035,11 +3095,11 @@
       <c r="C189">
         <v>252</v>
       </c>
-      <c r="D189">
-        <v>86.11111111111111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="D189" s="4">
+        <v>86.111111111111114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43236</v>
       </c>
@@ -3049,11 +3109,11 @@
       <c r="C190">
         <v>209</v>
       </c>
-      <c r="D190">
-        <v>98.56459330143541</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="D190" s="4">
+        <v>98.564593301435409</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43237</v>
       </c>
@@ -3063,11 +3123,11 @@
       <c r="C191">
         <v>201</v>
       </c>
-      <c r="D191">
-        <v>96.51741293532338</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="D191" s="4">
+        <v>96.517412935323378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43238</v>
       </c>
@@ -3077,11 +3137,11 @@
       <c r="C192">
         <v>232</v>
       </c>
-      <c r="D192">
-        <v>90.51724137931035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="D192" s="4">
+        <v>90.517241379310349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43239</v>
       </c>
@@ -3091,11 +3151,11 @@
       <c r="C193">
         <v>107</v>
       </c>
-      <c r="D193">
-        <v>78.50467289719626</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="D193" s="4">
+        <v>78.504672897196258</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43242</v>
       </c>
@@ -3105,11 +3165,11 @@
       <c r="C194">
         <v>269</v>
       </c>
-      <c r="D194">
-        <v>85.13011152416357</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="D194" s="4">
+        <v>85.130111524163567</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43243</v>
       </c>
@@ -3119,11 +3179,11 @@
       <c r="C195">
         <v>209</v>
       </c>
-      <c r="D195">
-        <v>75.59808612440192</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="D195" s="4">
+        <v>75.598086124401917</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43244</v>
       </c>
@@ -3133,11 +3193,11 @@
       <c r="C196">
         <v>222</v>
       </c>
-      <c r="D196">
-        <v>91.89189189189189</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="D196" s="4">
+        <v>91.891891891891888</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43245</v>
       </c>
@@ -3147,11 +3207,11 @@
       <c r="C197">
         <v>176</v>
       </c>
-      <c r="D197">
-        <v>99.43181818181819</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="D197" s="4">
+        <v>99.431818181818187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43246</v>
       </c>
@@ -3161,11 +3221,11 @@
       <c r="C198">
         <v>75</v>
       </c>
-      <c r="D198">
-        <v>97.33333333333333</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="D198" s="4">
+        <v>97.333333333333329</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43248</v>
       </c>
@@ -3175,11 +3235,11 @@
       <c r="C199">
         <v>197</v>
       </c>
-      <c r="D199">
-        <v>98.98477157360406</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="D199" s="4">
+        <v>98.984771573604064</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43249</v>
       </c>
@@ -3189,11 +3249,11 @@
       <c r="C200">
         <v>193</v>
       </c>
-      <c r="D200">
-        <v>98.96373056994818</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="D200" s="4">
+        <v>98.963730569948183</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43250</v>
       </c>
@@ -3203,11 +3263,11 @@
       <c r="C201">
         <v>205</v>
       </c>
-      <c r="D201">
-        <v>99.51219512195122</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="D201" s="4">
+        <v>99.512195121951223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43251</v>
       </c>
@@ -3217,11 +3277,11 @@
       <c r="C202">
         <v>101</v>
       </c>
-      <c r="D202">
-        <v>99.00990099009901</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="D202" s="4">
+        <v>99.009900990099013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43252</v>
       </c>
@@ -3231,11 +3291,11 @@
       <c r="C203">
         <v>201</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43253</v>
       </c>
@@ -3245,11 +3305,11 @@
       <c r="C204">
         <v>105</v>
       </c>
-      <c r="D204">
-        <v>91.42857142857143</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="D204" s="4">
+        <v>91.428571428571431</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43255</v>
       </c>
@@ -3259,11 +3319,11 @@
       <c r="C205">
         <v>241</v>
       </c>
-      <c r="D205">
-        <v>95.43568464730291</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="D205" s="4">
+        <v>95.435684647302907</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43256</v>
       </c>
@@ -3273,11 +3333,11 @@
       <c r="C206">
         <v>186</v>
       </c>
-      <c r="D206">
-        <v>99.46236559139786</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="D206" s="4">
+        <v>99.462365591397855</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43257</v>
       </c>
@@ -3287,11 +3347,11 @@
       <c r="C207">
         <v>181</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43258</v>
       </c>
@@ -3301,11 +3361,11 @@
       <c r="C208">
         <v>182</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43259</v>
       </c>
@@ -3315,11 +3375,11 @@
       <c r="C209">
         <v>211</v>
       </c>
-      <c r="D209">
-        <v>99.52606635071091</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="D209" s="4">
+        <v>99.526066350710906</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43260</v>
       </c>
@@ -3329,11 +3389,11 @@
       <c r="C210">
         <v>105</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>43262</v>
       </c>
@@ -3343,11 +3403,11 @@
       <c r="C211">
         <v>218</v>
       </c>
-      <c r="D211">
-        <v>99.54128440366972</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="D211" s="4">
+        <v>99.541284403669721</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>43263</v>
       </c>
@@ -3357,11 +3417,11 @@
       <c r="C212">
         <v>200</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>43264</v>
       </c>
@@ -3371,11 +3431,11 @@
       <c r="C213">
         <v>210</v>
       </c>
-      <c r="D213">
-        <v>99.04761904761905</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="D213" s="4">
+        <v>99.047619047619051</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>43265</v>
       </c>
@@ -3385,11 +3445,11 @@
       <c r="C214">
         <v>181</v>
       </c>
-      <c r="D214">
-        <v>98.89502762430939</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="D214" s="4">
+        <v>98.895027624309392</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>43266</v>
       </c>
@@ -3399,11 +3459,11 @@
       <c r="C215">
         <v>211</v>
       </c>
-      <c r="D215">
-        <v>98.10426540284361</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="D215" s="4">
+        <v>98.104265402843609</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43267</v>
       </c>
@@ -3413,11 +3473,11 @@
       <c r="C216">
         <v>83</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43269</v>
       </c>
@@ -3427,11 +3487,11 @@
       <c r="C217">
         <v>244</v>
       </c>
-      <c r="D217">
-        <v>99.59016393442623</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="D217" s="4">
+        <v>99.590163934426229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43270</v>
       </c>
@@ -3441,11 +3501,11 @@
       <c r="C218">
         <v>229</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>43271</v>
       </c>
@@ -3455,11 +3515,11 @@
       <c r="C219">
         <v>194</v>
       </c>
-      <c r="D219">
-        <v>99.48453608247422</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="D219" s="4">
+        <v>99.484536082474222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>43272</v>
       </c>
@@ -3469,11 +3529,11 @@
       <c r="C220">
         <v>192</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>43273</v>
       </c>
@@ -3483,11 +3543,11 @@
       <c r="C221">
         <v>206</v>
       </c>
-      <c r="D221">
-        <v>99.51456310679612</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="D221" s="4">
+        <v>99.514563106796118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>43274</v>
       </c>
@@ -3497,11 +3557,11 @@
       <c r="C222">
         <v>90</v>
       </c>
-      <c r="D222">
-        <v>97.77777777777777</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="D222" s="4">
+        <v>97.777777777777771</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>43276</v>
       </c>
@@ -3511,11 +3571,11 @@
       <c r="C223">
         <v>212</v>
       </c>
-      <c r="D223">
-        <v>99.52830188679245</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="D223" s="4">
+        <v>99.528301886792448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>43277</v>
       </c>
@@ -3525,11 +3585,11 @@
       <c r="C224">
         <v>222</v>
       </c>
-      <c r="D224">
-        <v>97.74774774774775</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="D224" s="4">
+        <v>97.747747747747752</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>43278</v>
       </c>
@@ -3539,11 +3599,11 @@
       <c r="C225">
         <v>169</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>43279</v>
       </c>
@@ -3553,11 +3613,11 @@
       <c r="C226">
         <v>173</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>43280</v>
       </c>
@@ -3567,11 +3627,11 @@
       <c r="C227">
         <v>192</v>
       </c>
-      <c r="D227">
-        <v>99.47916666666667</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="D227" s="4">
+        <v>99.479166666666671</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>43281</v>
       </c>
@@ -3581,11 +3641,11 @@
       <c r="C228">
         <v>80</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="4">
         <v>71.25</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>43283</v>
       </c>
@@ -3595,11 +3655,11 @@
       <c r="C229">
         <v>236</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43284</v>
       </c>
@@ -3609,11 +3669,11 @@
       <c r="C230">
         <v>193</v>
       </c>
-      <c r="D230">
-        <v>99.48186528497409</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="D230" s="4">
+        <v>99.481865284974091</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>43285</v>
       </c>
@@ -3623,11 +3683,11 @@
       <c r="C231">
         <v>194</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>43286</v>
       </c>
@@ -3637,11 +3697,11 @@
       <c r="C232">
         <v>202</v>
       </c>
-      <c r="D232">
-        <v>99.5049504950495</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="D232" s="4">
+        <v>99.504950495049499</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>43287</v>
       </c>
@@ -3651,11 +3711,11 @@
       <c r="C233">
         <v>190</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="4">
         <v>96.84210526315789</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>43288</v>
       </c>
@@ -3665,11 +3725,11 @@
       <c r="C234">
         <v>85</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>43290</v>
       </c>
@@ -3679,11 +3739,11 @@
       <c r="C235">
         <v>236</v>
       </c>
-      <c r="D235">
-        <v>99.57627118644068</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="D235" s="4">
+        <v>99.576271186440678</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>43291</v>
       </c>
@@ -3693,11 +3753,11 @@
       <c r="C236">
         <v>187</v>
       </c>
-      <c r="D236">
-        <v>99.46524064171123</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="D236" s="4">
+        <v>99.465240641711233</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>43292</v>
       </c>
@@ -3707,11 +3767,11 @@
       <c r="C237">
         <v>225</v>
       </c>
-      <c r="D237">
-        <v>99.11111111111111</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="D237" s="4">
+        <v>99.111111111111114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>43293</v>
       </c>
@@ -3721,11 +3781,11 @@
       <c r="C238">
         <v>207</v>
       </c>
-      <c r="D238">
-        <v>98.55072463768116</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="D238" s="4">
+        <v>98.550724637681157</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>43294</v>
       </c>
@@ -3735,11 +3795,11 @@
       <c r="C239">
         <v>210</v>
       </c>
-      <c r="D239">
-        <v>99.52380952380952</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="D239" s="4">
+        <v>99.523809523809518</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>43295</v>
       </c>
@@ -3749,11 +3809,11 @@
       <c r="C240">
         <v>199</v>
       </c>
-      <c r="D240">
-        <v>95.97989949748744</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="D240" s="4">
+        <v>95.979899497487438</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43297</v>
       </c>
@@ -3763,11 +3823,11 @@
       <c r="C241">
         <v>518</v>
       </c>
-      <c r="D241">
-        <v>97.68339768339769</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="D241" s="4">
+        <v>97.683397683397686</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>43298</v>
       </c>
@@ -3777,11 +3837,11 @@
       <c r="C242">
         <v>466</v>
       </c>
-      <c r="D242">
-        <v>96.13733905579399</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="D242" s="4">
+        <v>96.137339055793987</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>43299</v>
       </c>
@@ -3791,11 +3851,11 @@
       <c r="C243">
         <v>446</v>
       </c>
-      <c r="D243">
-        <v>96.8609865470852</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="D243" s="4">
+        <v>96.860986547085204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>43300</v>
       </c>
@@ -3805,11 +3865,11 @@
       <c r="C244">
         <v>382</v>
       </c>
-      <c r="D244">
-        <v>95.54973821989529</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="D244" s="4">
+        <v>95.549738219895289</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>43301</v>
       </c>
@@ -3819,11 +3879,11 @@
       <c r="C245">
         <v>363</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="4">
         <v>95.04132231404958</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>43302</v>
       </c>
@@ -3833,11 +3893,11 @@
       <c r="C246">
         <v>227</v>
       </c>
-      <c r="D246">
-        <v>85.02202643171806</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="D246" s="4">
+        <v>85.022026431718061</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>43304</v>
       </c>
@@ -3847,11 +3907,11 @@
       <c r="C247">
         <v>504</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="4">
         <v>86.30952380952381</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>43305</v>
       </c>
@@ -3861,11 +3921,11 @@
       <c r="C248">
         <v>416</v>
       </c>
-      <c r="D248">
-        <v>95.43269230769231</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="D248" s="4">
+        <v>95.432692307692307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>43306</v>
       </c>
@@ -3875,11 +3935,11 @@
       <c r="C249">
         <v>430</v>
       </c>
-      <c r="D249">
-        <v>88.13953488372093</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="D249" s="4">
+        <v>88.139534883720927</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>43307</v>
       </c>
@@ -3889,11 +3949,11 @@
       <c r="C250">
         <v>377</v>
       </c>
-      <c r="D250">
-        <v>92.04244031830238</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="D250" s="4">
+        <v>92.042440318302383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>43308</v>
       </c>
@@ -3903,11 +3963,11 @@
       <c r="C251">
         <v>399</v>
       </c>
-      <c r="D251">
-        <v>97.4937343358396</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="D251" s="4">
+        <v>97.493734335839605</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>43309</v>
       </c>
@@ -3917,11 +3977,11 @@
       <c r="C252">
         <v>204</v>
       </c>
-      <c r="D252">
-        <v>85.29411764705883</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="D252" s="4">
+        <v>85.294117647058826</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>43311</v>
       </c>
@@ -3931,11 +3991,11 @@
       <c r="C253">
         <v>495</v>
       </c>
-      <c r="D253">
-        <v>96.76767676767676</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="D253" s="4">
+        <v>96.767676767676761</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>43312</v>
       </c>
@@ -3945,11 +4005,11 @@
       <c r="C254">
         <v>445</v>
       </c>
-      <c r="D254">
-        <v>97.97752808988764</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="D254" s="4">
+        <v>97.977528089887642</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>43313</v>
       </c>
@@ -3959,11 +4019,11 @@
       <c r="C255">
         <v>380</v>
       </c>
-      <c r="D255">
-        <v>97.63157894736842</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="D255" s="4">
+        <v>97.631578947368425</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>43314</v>
       </c>
@@ -3973,11 +4033,11 @@
       <c r="C256">
         <v>373</v>
       </c>
-      <c r="D256">
-        <v>97.05093833780161</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="D256" s="4">
+        <v>97.050938337801611</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>43315</v>
       </c>
@@ -3987,11 +4047,11 @@
       <c r="C257">
         <v>379</v>
       </c>
-      <c r="D257">
-        <v>97.0976253298153</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="D257" s="4">
+        <v>97.097625329815301</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>43316</v>
       </c>
@@ -4001,11 +4061,11 @@
       <c r="C258">
         <v>212</v>
       </c>
-      <c r="D258">
-        <v>95.75471698113208</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="D258" s="4">
+        <v>95.754716981132077</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>43318</v>
       </c>
@@ -4015,11 +4075,11 @@
       <c r="C259">
         <v>444</v>
       </c>
-      <c r="D259">
-        <v>97.52252252252252</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="D259" s="4">
+        <v>97.522522522522522</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>43319</v>
       </c>
@@ -4029,11 +4089,11 @@
       <c r="C260">
         <v>385</v>
       </c>
-      <c r="D260">
-        <v>97.92207792207792</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="D260" s="4">
+        <v>97.922077922077918</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>43320</v>
       </c>
@@ -4043,11 +4103,11 @@
       <c r="C261">
         <v>444</v>
       </c>
-      <c r="D261">
-        <v>96.17117117117117</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="D261" s="4">
+        <v>96.171171171171167</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>43321</v>
       </c>
@@ -4057,11 +4117,11 @@
       <c r="C262">
         <v>377</v>
       </c>
-      <c r="D262">
-        <v>98.67374005305039</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="D262" s="4">
+        <v>98.673740053050395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>43322</v>
       </c>
@@ -4071,11 +4131,11 @@
       <c r="C263">
         <v>418</v>
       </c>
-      <c r="D263">
-        <v>96.41148325358851</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="D263" s="4">
+        <v>96.411483253588514</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>43323</v>
       </c>
@@ -4085,11 +4145,11 @@
       <c r="C264">
         <v>259</v>
       </c>
-      <c r="D264">
-        <v>88.41698841698842</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="D264" s="4">
+        <v>88.416988416988417</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>43325</v>
       </c>
@@ -4099,11 +4159,11 @@
       <c r="C265">
         <v>538</v>
       </c>
-      <c r="D265">
-        <v>97.02602230483271</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="D265" s="4">
+        <v>97.026022304832708</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>43326</v>
       </c>
@@ -4113,11 +4173,11 @@
       <c r="C266">
         <v>421</v>
       </c>
-      <c r="D266">
-        <v>96.43705463182899</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="D266" s="4">
+        <v>96.437054631828985</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>43327</v>
       </c>
@@ -4127,11 +4187,11 @@
       <c r="C267">
         <v>419</v>
       </c>
-      <c r="D267">
-        <v>88.06682577565633</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="D267" s="4">
+        <v>88.066825775656326</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>43328</v>
       </c>
@@ -4141,11 +4201,11 @@
       <c r="C268">
         <v>431</v>
       </c>
-      <c r="D268">
-        <v>94.43155452436194</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="D268" s="4">
+        <v>94.431554524361943</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>43329</v>
       </c>
@@ -4155,11 +4215,11 @@
       <c r="C269">
         <v>529</v>
       </c>
-      <c r="D269">
-        <v>89.98109640831758</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="D269" s="4">
+        <v>89.981096408317583</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>43330</v>
       </c>
@@ -4169,11 +4229,11 @@
       <c r="C270">
         <v>264</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="4">
         <v>88.63636363636364</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>43332</v>
       </c>
@@ -4183,11 +4243,11 @@
       <c r="C271">
         <v>720</v>
       </c>
-      <c r="D271">
-        <v>84.58333333333333</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="D271" s="4">
+        <v>84.583333333333329</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>43333</v>
       </c>
@@ -4197,11 +4257,11 @@
       <c r="C272">
         <v>575</v>
       </c>
-      <c r="D272">
-        <v>87.1304347826087</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="D272" s="4">
+        <v>87.130434782608702</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>43334</v>
       </c>
@@ -4211,11 +4271,11 @@
       <c r="C273">
         <v>528</v>
       </c>
-      <c r="D273">
-        <v>89.58333333333333</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="D273" s="4">
+        <v>89.583333333333329</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>43335</v>
       </c>
@@ -4225,11 +4285,11 @@
       <c r="C274">
         <v>567</v>
       </c>
-      <c r="D274">
-        <v>86.94885361552028</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="D274" s="4">
+        <v>86.948853615520278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>43336</v>
       </c>
@@ -4239,11 +4299,11 @@
       <c r="C275">
         <v>593</v>
       </c>
-      <c r="D275">
-        <v>78.58347386172007</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="D275" s="4">
+        <v>78.583473861720066</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43337</v>
       </c>
@@ -4253,11 +4313,11 @@
       <c r="C276">
         <v>296</v>
       </c>
-      <c r="D276">
-        <v>80.4054054054054</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="D276" s="4">
+        <v>80.405405405405403</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43339</v>
       </c>
@@ -4267,11 +4327,11 @@
       <c r="C277">
         <v>836</v>
       </c>
-      <c r="D277">
-        <v>67.82296650717703</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="D277" s="4">
+        <v>67.822966507177028</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43340</v>
       </c>
@@ -4281,11 +4341,11 @@
       <c r="C278">
         <v>620</v>
       </c>
-      <c r="D278">
-        <v>86.12903225806451</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="D278" s="4">
+        <v>86.129032258064512</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43341</v>
       </c>
@@ -4295,11 +4355,11 @@
       <c r="C279">
         <v>540</v>
       </c>
-      <c r="D279">
-        <v>83.14814814814815</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="D279" s="4">
+        <v>83.148148148148152</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43342</v>
       </c>
@@ -4309,11 +4369,11 @@
       <c r="C280">
         <v>641</v>
       </c>
-      <c r="D280">
-        <v>79.56318252730109</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="D280" s="4">
+        <v>79.563182527301095</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43343</v>
       </c>
@@ -4323,11 +4383,11 @@
       <c r="C281">
         <v>647</v>
       </c>
-      <c r="D281">
-        <v>65.37867078825347</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="D281" s="4">
+        <v>65.378670788253473</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43344</v>
       </c>
@@ -4337,11 +4397,11 @@
       <c r="C282">
         <v>267</v>
       </c>
-      <c r="D282">
-        <v>66.29213483146067</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="D282" s="4">
+        <v>66.292134831460672</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43346</v>
       </c>
@@ -4351,11 +4411,11 @@
       <c r="C283">
         <v>771</v>
       </c>
-      <c r="D283">
-        <v>71.59533073929961</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="D283" s="4">
+        <v>71.595330739299612</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43347</v>
       </c>
@@ -4365,11 +4425,11 @@
       <c r="C284">
         <v>693</v>
       </c>
-      <c r="D284">
-        <v>76.04617604617604</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="D284" s="4">
+        <v>76.046176046176043</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43348</v>
       </c>
@@ -4379,11 +4439,11 @@
       <c r="C285">
         <v>593</v>
       </c>
-      <c r="D285">
-        <v>76.39123102866779</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="D285" s="4">
+        <v>76.391231028667789</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43349</v>
       </c>
@@ -4393,11 +4453,11 @@
       <c r="C286">
         <v>541</v>
       </c>
-      <c r="D286">
-        <v>90.0184842883549</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="D286" s="4">
+        <v>90.018484288354898</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43350</v>
       </c>
@@ -4407,11 +4467,11 @@
       <c r="C287">
         <v>599</v>
       </c>
-      <c r="D287">
-        <v>81.46911519198665</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="D287" s="4">
+        <v>81.469115191986646</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43351</v>
       </c>
@@ -4421,11 +4481,11 @@
       <c r="C288">
         <v>307</v>
       </c>
-      <c r="D288">
-        <v>89.90228013029316</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="D288" s="4">
+        <v>89.902280130293164</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43353</v>
       </c>
@@ -4435,11 +4495,11 @@
       <c r="C289">
         <v>695</v>
       </c>
-      <c r="D289">
-        <v>85.46762589928058</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="D289" s="4">
+        <v>85.467625899280577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43354</v>
       </c>
@@ -4449,11 +4509,11 @@
       <c r="C290">
         <v>642</v>
       </c>
-      <c r="D290">
-        <v>80.37383177570094</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="D290" s="4">
+        <v>80.373831775700936</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43355</v>
       </c>
@@ -4463,11 +4523,11 @@
       <c r="C291">
         <v>584</v>
       </c>
-      <c r="D291">
-        <v>82.53424657534246</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="D291" s="4">
+        <v>82.534246575342465</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43356</v>
       </c>
@@ -4477,11 +4537,11 @@
       <c r="C292">
         <v>560</v>
       </c>
-      <c r="D292">
-        <v>89.64285714285714</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="D292" s="4">
+        <v>89.642857142857139</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43357</v>
       </c>
@@ -4491,11 +4551,11 @@
       <c r="C293">
         <v>592</v>
       </c>
-      <c r="D293">
-        <v>84.29054054054055</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="D293" s="4">
+        <v>84.290540540540547</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43358</v>
       </c>
@@ -4505,11 +4565,11 @@
       <c r="C294">
         <v>275</v>
       </c>
-      <c r="D294">
-        <v>81.45454545454545</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="D294" s="4">
+        <v>81.454545454545453</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43360</v>
       </c>
@@ -4519,11 +4579,11 @@
       <c r="C295">
         <v>640</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="4">
         <v>71.71875</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43361</v>
       </c>
@@ -4533,11 +4593,11 @@
       <c r="C296">
         <v>621</v>
       </c>
-      <c r="D296">
-        <v>84.86312399355877</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="D296" s="4">
+        <v>84.863123993558773</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43362</v>
       </c>
@@ -4547,11 +4607,11 @@
       <c r="C297">
         <v>611</v>
       </c>
-      <c r="D297">
-        <v>81.83306055646482</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="D297" s="4">
+        <v>81.833060556464815</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43363</v>
       </c>
@@ -4561,11 +4621,11 @@
       <c r="C298">
         <v>538</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="4">
         <v>84.94423791821562</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43364</v>
       </c>
@@ -4575,11 +4635,11 @@
       <c r="C299">
         <v>795</v>
       </c>
-      <c r="D299">
-        <v>57.73584905660378</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="D299" s="4">
+        <v>57.735849056603783</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43365</v>
       </c>
@@ -4589,11 +4649,11 @@
       <c r="C300">
         <v>329</v>
       </c>
-      <c r="D300">
-        <v>80.85106382978724</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="D300" s="4">
+        <v>80.851063829787236</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43367</v>
       </c>
@@ -4603,11 +4663,11 @@
       <c r="C301">
         <v>941</v>
       </c>
-      <c r="D301">
-        <v>65.56854410201913</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="D301" s="4">
+        <v>65.568544102019132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43368</v>
       </c>
@@ -4617,11 +4677,11 @@
       <c r="C302">
         <v>760</v>
       </c>
-      <c r="D302">
-        <v>76.97368421052632</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="D302" s="4">
+        <v>76.973684210526315</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43369</v>
       </c>
@@ -4631,11 +4691,11 @@
       <c r="C303">
         <v>687</v>
       </c>
-      <c r="D303">
-        <v>69.14119359534207</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="D303" s="4">
+        <v>69.141193595342074</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43370</v>
       </c>
@@ -4645,11 +4705,11 @@
       <c r="C304">
         <v>611</v>
       </c>
-      <c r="D304">
-        <v>78.55973813420621</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="D304" s="4">
+        <v>78.559738134206214</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43371</v>
       </c>
@@ -4659,11 +4719,11 @@
       <c r="C305">
         <v>621</v>
       </c>
-      <c r="D305">
-        <v>71.49758454106281</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="D305" s="4">
+        <v>71.497584541062807</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43372</v>
       </c>
@@ -4673,11 +4733,11 @@
       <c r="C306">
         <v>303</v>
       </c>
-      <c r="D306">
-        <v>80.19801980198019</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="D306" s="4">
+        <v>80.198019801980195</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43374</v>
       </c>
@@ -4687,11 +4747,11 @@
       <c r="C307">
         <v>833</v>
       </c>
-      <c r="D307">
-        <v>62.54501800720288</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="D307" s="4">
+        <v>62.545018007202877</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43375</v>
       </c>
@@ -4701,11 +4761,11 @@
       <c r="C308">
         <v>692</v>
       </c>
-      <c r="D308">
-        <v>76.30057803468208</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="D308" s="4">
+        <v>76.300578034682076</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>43376</v>
       </c>
@@ -4715,11 +4775,11 @@
       <c r="C309">
         <v>0</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>43377</v>
       </c>
@@ -4729,11 +4789,11 @@
       <c r="C310">
         <v>742</v>
       </c>
-      <c r="D310">
-        <v>82.74932614555256</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="D310" s="4">
+        <v>82.749326145552558</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>43378</v>
       </c>
@@ -4743,11 +4803,11 @@
       <c r="C311">
         <v>643</v>
       </c>
-      <c r="D311">
-        <v>84.44790046656298</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="D311" s="4">
+        <v>84.447900466562984</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>43379</v>
       </c>
@@ -4757,11 +4817,11 @@
       <c r="C312">
         <v>265</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="4">
         <v>93.20754716981132</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>43381</v>
       </c>
@@ -4771,11 +4831,11 @@
       <c r="C313">
         <v>924</v>
       </c>
-      <c r="D313">
-        <v>60.71428571428572</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="D313" s="4">
+        <v>60.714285714285722</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>43382</v>
       </c>
@@ -4785,11 +4845,11 @@
       <c r="C314">
         <v>692</v>
       </c>
-      <c r="D314">
-        <v>72.83236994219654</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="D314" s="4">
+        <v>72.832369942196536</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>43383</v>
       </c>
@@ -4799,11 +4859,11 @@
       <c r="C315">
         <v>754</v>
       </c>
-      <c r="D315">
-        <v>59.15119363395225</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="D315" s="4">
+        <v>59.151193633952253</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>43384</v>
       </c>
@@ -4813,11 +4873,11 @@
       <c r="C316">
         <v>598</v>
       </c>
-      <c r="D316">
-        <v>83.27759197324414</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="D316" s="4">
+        <v>83.277591973244142</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>43385</v>
       </c>
@@ -4827,11 +4887,11 @@
       <c r="C317">
         <v>546</v>
       </c>
-      <c r="D317">
-        <v>83.33333333333333</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="D317" s="4">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>43386</v>
       </c>
@@ -4841,11 +4901,11 @@
       <c r="C318">
         <v>278</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="4">
         <v>75.17985611510791</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>43388</v>
       </c>
@@ -4855,11 +4915,11 @@
       <c r="C319">
         <v>756</v>
       </c>
-      <c r="D319">
-        <v>71.29629629629629</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="D319" s="4">
+        <v>71.296296296296291</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>43389</v>
       </c>
@@ -4869,11 +4929,11 @@
       <c r="C320">
         <v>769</v>
       </c>
-      <c r="D320">
-        <v>56.04681404421326</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="D320" s="4">
+        <v>56.046814044213257</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>43390</v>
       </c>
@@ -4883,11 +4943,11 @@
       <c r="C321">
         <v>616</v>
       </c>
-      <c r="D321">
-        <v>71.75324675324676</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="D321" s="4">
+        <v>71.753246753246756</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>43391</v>
       </c>
@@ -4897,11 +4957,11 @@
       <c r="C322">
         <v>679</v>
       </c>
-      <c r="D322">
-        <v>63.91752577319588</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="D322" s="4">
+        <v>63.917525773195877</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>43392</v>
       </c>
@@ -4911,11 +4971,11 @@
       <c r="C323">
         <v>643</v>
       </c>
-      <c r="D323">
-        <v>78.69362363919129</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="D323" s="4">
+        <v>78.693623639191287</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>43393</v>
       </c>
@@ -4925,11 +4985,11 @@
       <c r="C324">
         <v>360</v>
       </c>
-      <c r="D324">
-        <v>66.11111111111111</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="D324" s="4">
+        <v>66.111111111111114</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>43395</v>
       </c>
@@ -4939,11 +4999,11 @@
       <c r="C325">
         <v>874</v>
       </c>
-      <c r="D325">
-        <v>68.19221967963387</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="D325" s="4">
+        <v>68.192219679633865</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>43396</v>
       </c>
@@ -4953,11 +5013,11 @@
       <c r="C326">
         <v>785</v>
       </c>
-      <c r="D326">
-        <v>59.87261146496815</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="D326" s="4">
+        <v>59.872611464968152</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>43397</v>
       </c>
@@ -4967,11 +5027,11 @@
       <c r="C327">
         <v>755</v>
       </c>
-      <c r="D327">
-        <v>53.90728476821192</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="D327" s="4">
+        <v>53.907284768211923</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>43398</v>
       </c>
@@ -4981,11 +5041,11 @@
       <c r="C328">
         <v>680</v>
       </c>
-      <c r="D328">
-        <v>73.52941176470588</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="D328" s="4">
+        <v>73.529411764705884</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>43399</v>
       </c>
@@ -4995,11 +5055,11 @@
       <c r="C329">
         <v>705</v>
       </c>
-      <c r="D329">
-        <v>71.20567375886525</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="D329" s="4">
+        <v>71.205673758865245</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>43400</v>
       </c>
@@ -5009,11 +5069,11 @@
       <c r="C330">
         <v>381</v>
       </c>
-      <c r="D330">
-        <v>36.48293963254593</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="D330" s="4">
+        <v>36.482939632545929</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>43402</v>
       </c>
@@ -5023,11 +5083,11 @@
       <c r="C331">
         <v>901</v>
       </c>
-      <c r="D331">
-        <v>64.92785793562707</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="D331" s="4">
+        <v>64.927857935627074</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>43403</v>
       </c>
@@ -5037,11 +5097,11 @@
       <c r="C332">
         <v>865</v>
       </c>
-      <c r="D332">
-        <v>56.06936416184971</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="D332" s="4">
+        <v>56.069364161849713</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>43404</v>
       </c>
@@ -5051,11 +5111,11 @@
       <c r="C333">
         <v>713</v>
       </c>
-      <c r="D333">
-        <v>60.30855539971949</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="D333" s="4">
+        <v>60.308555399719488</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>43405</v>
       </c>
@@ -5065,11 +5125,11 @@
       <c r="C334">
         <v>301</v>
       </c>
-      <c r="D334">
-        <v>73.42192691029901</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="D334" s="4">
+        <v>73.421926910299007</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>43406</v>
       </c>
@@ -5079,11 +5139,11 @@
       <c r="C335">
         <v>1027</v>
       </c>
-      <c r="D335">
-        <v>42.35637779941577</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="D335" s="4">
+        <v>42.356377799415768</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>43407</v>
       </c>
@@ -5093,11 +5153,11 @@
       <c r="C336">
         <v>393</v>
       </c>
-      <c r="D336">
-        <v>67.17557251908397</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="D336" s="4">
+        <v>67.175572519083971</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>43409</v>
       </c>
@@ -5107,11 +5167,11 @@
       <c r="C337">
         <v>1080</v>
       </c>
-      <c r="D337">
-        <v>57.12962962962963</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="D337" s="4">
+        <v>57.129629629629633</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>43410</v>
       </c>
@@ -5121,11 +5181,11 @@
       <c r="C338">
         <v>812</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="4">
         <v>66.13300492610837</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>43411</v>
       </c>
@@ -5135,11 +5195,11 @@
       <c r="C339">
         <v>688</v>
       </c>
-      <c r="D339">
-        <v>78.34302325581395</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="D339" s="4">
+        <v>78.343023255813947</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>43412</v>
       </c>
@@ -5149,11 +5209,11 @@
       <c r="C340">
         <v>670</v>
       </c>
-      <c r="D340">
-        <v>73.13432835820896</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="D340" s="4">
+        <v>73.134328358208961</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>43413</v>
       </c>
@@ -5163,11 +5223,11 @@
       <c r="C341">
         <v>685</v>
       </c>
-      <c r="D341">
-        <v>87.00729927007299</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="D341" s="4">
+        <v>87.007299270072991</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>43414</v>
       </c>
@@ -5177,11 +5237,11 @@
       <c r="C342">
         <v>391</v>
       </c>
-      <c r="D342">
-        <v>64.45012787723785</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="D342" s="4">
+        <v>64.450127877237847</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>43416</v>
       </c>
@@ -5191,11 +5251,11 @@
       <c r="C343">
         <v>1004</v>
       </c>
-      <c r="D343">
-        <v>62.05179282868526</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="D343" s="4">
+        <v>62.051792828685258</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>43417</v>
       </c>
@@ -5205,11 +5265,11 @@
       <c r="C344">
         <v>897</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="4">
         <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>43418</v>
       </c>
@@ -5219,11 +5279,11 @@
       <c r="C345">
         <v>758</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="4">
         <v>70.44854881266491</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>43419</v>
       </c>
@@ -5233,11 +5293,11 @@
       <c r="C346">
         <v>672</v>
       </c>
-      <c r="D346">
-        <v>82.58928571428571</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="D346" s="4">
+        <v>82.589285714285708</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>43420</v>
       </c>
@@ -5247,11 +5307,11 @@
       <c r="C347">
         <v>746</v>
       </c>
-      <c r="D347">
-        <v>76.40750670241287</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="D347" s="4">
+        <v>76.407506702412874</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>43421</v>
       </c>
@@ -5261,11 +5321,11 @@
       <c r="C348">
         <v>405</v>
       </c>
-      <c r="D348">
-        <v>47.16049382716049</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="D348" s="4">
+        <v>47.160493827160487</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>43423</v>
       </c>
@@ -5275,11 +5335,11 @@
       <c r="C349">
         <v>4457</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="4">
         <v>27.75409468252187</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>43424</v>
       </c>
@@ -5289,11 +5349,11 @@
       <c r="C350">
         <v>1230</v>
       </c>
-      <c r="D350">
-        <v>49.83739837398374</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="D350" s="4">
+        <v>49.837398373983739</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>43425</v>
       </c>
@@ -5303,11 +5363,11 @@
       <c r="C351">
         <v>1105</v>
       </c>
-      <c r="D351">
-        <v>40.4524886877828</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="D351" s="4">
+        <v>40.452488687782797</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>43426</v>
       </c>
@@ -5317,11 +5377,11 @@
       <c r="C352">
         <v>1326</v>
       </c>
-      <c r="D352">
-        <v>43.96681749622926</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="D352" s="4">
+        <v>43.966817496229261</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>43427</v>
       </c>
@@ -5331,11 +5391,11 @@
       <c r="C353">
         <v>1132</v>
       </c>
-      <c r="D353">
-        <v>40.63604240282685</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="D353" s="4">
+        <v>40.636042402826853</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>43428</v>
       </c>
@@ -5345,11 +5405,11 @@
       <c r="C354">
         <v>860</v>
       </c>
-      <c r="D354">
-        <v>31.74418604651163</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="D354" s="4">
+        <v>31.744186046511629</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>43429</v>
       </c>
@@ -5359,11 +5419,11 @@
       <c r="C355">
         <v>0</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>43430</v>
       </c>
@@ -5373,11 +5433,11 @@
       <c r="C356">
         <v>1615</v>
       </c>
-      <c r="D356">
-        <v>37.15170278637771</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="D356" s="4">
+        <v>37.151702786377712</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>43431</v>
       </c>
@@ -5387,11 +5447,11 @@
       <c r="C357">
         <v>1032</v>
       </c>
-      <c r="D357">
-        <v>50.67829457364341</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="D357" s="4">
+        <v>50.678294573643413</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>43432</v>
       </c>
@@ -5401,11 +5461,11 @@
       <c r="C358">
         <v>1175</v>
       </c>
-      <c r="D358">
-        <v>50.04255319148936</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="D358" s="4">
+        <v>50.042553191489361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>43433</v>
       </c>
@@ -5415,11 +5475,11 @@
       <c r="C359">
         <v>968</v>
       </c>
-      <c r="D359">
-        <v>70.66115702479338</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="D359" s="4">
+        <v>70.661157024793383</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43434</v>
       </c>
@@ -5429,11 +5489,11 @@
       <c r="C360">
         <v>940</v>
       </c>
-      <c r="D360">
-        <v>64.78723404255319</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="D360" s="4">
+        <v>64.787234042553195</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43435</v>
       </c>
@@ -5443,11 +5503,11 @@
       <c r="C361">
         <v>598</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="4">
         <v>45.1505016722408</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43437</v>
       </c>
@@ -5457,11 +5517,11 @@
       <c r="C362">
         <v>1354</v>
       </c>
-      <c r="D362">
-        <v>52.88035450516987</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="D362" s="4">
+        <v>52.880354505169869</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43438</v>
       </c>
@@ -5471,11 +5531,11 @@
       <c r="C363">
         <v>1097</v>
       </c>
-      <c r="D363">
-        <v>57.06472196900638</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="D363" s="4">
+        <v>57.064721969006378</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43439</v>
       </c>
@@ -5485,11 +5545,11 @@
       <c r="C364">
         <v>998</v>
       </c>
-      <c r="D364">
-        <v>72.34468937875752</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="D364" s="4">
+        <v>72.344689378757522</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43440</v>
       </c>
@@ -5499,11 +5559,11 @@
       <c r="C365">
         <v>966</v>
       </c>
-      <c r="D365">
-        <v>78.98550724637681</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="D365" s="4">
+        <v>78.985507246376812</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43441</v>
       </c>
@@ -5513,11 +5573,11 @@
       <c r="C366">
         <v>1055</v>
       </c>
-      <c r="D366">
-        <v>62.27488151658768</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="D366" s="4">
+        <v>62.274881516587683</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43442</v>
       </c>
@@ -5527,11 +5587,11 @@
       <c r="C367">
         <v>653</v>
       </c>
-      <c r="D367">
-        <v>29.09647779479326</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="D367" s="4">
+        <v>29.096477794793259</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43444</v>
       </c>
@@ -5541,11 +5601,11 @@
       <c r="C368">
         <v>1340</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="4">
         <v>63.35820895522388</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43445</v>
       </c>
@@ -5555,11 +5615,11 @@
       <c r="C369">
         <v>1062</v>
       </c>
-      <c r="D369">
-        <v>85.12241054613936</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="D369" s="4">
+        <v>85.122410546139363</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43446</v>
       </c>
@@ -5569,11 +5629,11 @@
       <c r="C370">
         <v>979</v>
       </c>
-      <c r="D370">
-        <v>77.22165474974464</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="D370" s="4">
+        <v>77.221654749744644</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43447</v>
       </c>
@@ -5583,11 +5643,11 @@
       <c r="C371">
         <v>934</v>
       </c>
-      <c r="D371">
-        <v>73.34047109207708</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="D371" s="4">
+        <v>73.340471092077081</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43448</v>
       </c>
@@ -5597,11 +5657,11 @@
       <c r="C372">
         <v>934</v>
       </c>
-      <c r="D372">
-        <v>64.66809421841542</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="D372" s="4">
+        <v>64.668094218415419</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43449</v>
       </c>
@@ -5611,11 +5671,11 @@
       <c r="C373">
         <v>622</v>
       </c>
-      <c r="D373">
-        <v>47.58842443729903</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="D373" s="4">
+        <v>47.588424437299032</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43451</v>
       </c>
@@ -5625,11 +5685,11 @@
       <c r="C374">
         <v>1300</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="4">
         <v>63.46153846153846</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43452</v>
       </c>
@@ -5639,11 +5699,11 @@
       <c r="C375">
         <v>1153</v>
       </c>
-      <c r="D375">
-        <v>66.43538594969644</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="D375" s="4">
+        <v>66.435385949696439</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43453</v>
       </c>
@@ -5653,11 +5713,11 @@
       <c r="C376">
         <v>997</v>
       </c>
-      <c r="D376">
-        <v>71.6148445336008</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="D376" s="4">
+        <v>71.614844533600802</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43454</v>
       </c>
@@ -5667,11 +5727,11 @@
       <c r="C377">
         <v>985</v>
       </c>
-      <c r="D377">
-        <v>72.48730964467005</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="D377" s="4">
+        <v>72.487309644670049</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43455</v>
       </c>
@@ -5681,11 +5741,11 @@
       <c r="C378">
         <v>1003</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="4">
         <v>72.48255234297109</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43456</v>
       </c>
@@ -5695,11 +5755,11 @@
       <c r="C379">
         <v>530</v>
       </c>
-      <c r="D379">
-        <v>63.9622641509434</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+      <c r="D379" s="4">
+        <v>63.962264150943398</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43458</v>
       </c>
@@ -5709,11 +5769,11 @@
       <c r="C380">
         <v>297</v>
       </c>
-      <c r="D380">
-        <v>81.81818181818181</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="D380" s="4">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43459</v>
       </c>
@@ -5723,11 +5783,11 @@
       <c r="C381">
         <v>0</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43461</v>
       </c>
@@ -5737,11 +5797,11 @@
       <c r="C382">
         <v>1530</v>
       </c>
-      <c r="D382">
-        <v>40.65359477124183</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="D382" s="4">
+        <v>40.653594771241828</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43462</v>
       </c>
@@ -5751,11 +5811,11 @@
       <c r="C383">
         <v>1276</v>
       </c>
-      <c r="D383">
-        <v>47.49216300940439</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
+      <c r="D383" s="4">
+        <v>47.492163009404393</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43463</v>
       </c>
@@ -5765,11 +5825,11 @@
       <c r="C384">
         <v>667</v>
       </c>
-      <c r="D384">
-        <v>52.47376311844078</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="D384" s="4">
+        <v>52.473763118440779</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43465</v>
       </c>
@@ -5779,11 +5839,11 @@
       <c r="C385">
         <v>498</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="4">
         <v>81.92771084337349</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43466</v>
       </c>
@@ -5793,11 +5853,11 @@
       <c r="C386">
         <v>0</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43467</v>
       </c>
@@ -5807,11 +5867,11 @@
       <c r="C387">
         <v>1238</v>
       </c>
-      <c r="D387">
-        <v>45.15347334410339</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="D387" s="4">
+        <v>45.153473344103389</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43468</v>
       </c>
@@ -5821,11 +5881,11 @@
       <c r="C388">
         <v>1185</v>
       </c>
-      <c r="D388">
-        <v>69.0295358649789</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="D388" s="4">
+        <v>69.029535864978897</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43469</v>
       </c>
@@ -5835,11 +5895,11 @@
       <c r="C389">
         <v>1065</v>
       </c>
-      <c r="D389">
-        <v>65.07042253521126</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="D389" s="4">
+        <v>65.070422535211264</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43470</v>
       </c>
@@ -5849,11 +5909,11 @@
       <c r="C390">
         <v>621</v>
       </c>
-      <c r="D390">
-        <v>49.11433172302738</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="D390" s="4">
+        <v>49.114331723027377</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43472</v>
       </c>
@@ -5863,11 +5923,11 @@
       <c r="C391">
         <v>1375</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="4">
         <v>45.81818181818182</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43473</v>
       </c>
@@ -5877,11 +5937,11 @@
       <c r="C392">
         <v>1099</v>
       </c>
-      <c r="D392">
-        <v>66.06005459508644</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="D392" s="4">
+        <v>66.060054595086442</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43474</v>
       </c>
@@ -5891,11 +5951,11 @@
       <c r="C393">
         <v>968</v>
       </c>
-      <c r="D393">
-        <v>64.6694214876033</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="D393" s="4">
+        <v>64.669421487603302</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43475</v>
       </c>
@@ -5905,11 +5965,11 @@
       <c r="C394">
         <v>883</v>
       </c>
-      <c r="D394">
-        <v>89.01472253680635</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="D394" s="4">
+        <v>89.014722536806346</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43476</v>
       </c>
@@ -5919,11 +5979,11 @@
       <c r="C395">
         <v>856</v>
       </c>
-      <c r="D395">
-        <v>86.91588785046729</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="D395" s="4">
+        <v>86.915887850467286</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43477</v>
       </c>
@@ -5933,11 +5993,11 @@
       <c r="C396">
         <v>510</v>
       </c>
-      <c r="D396">
-        <v>70.98039215686275</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="D396" s="4">
+        <v>70.980392156862749</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43479</v>
       </c>
@@ -5947,11 +6007,11 @@
       <c r="C397">
         <v>1112</v>
       </c>
-      <c r="D397">
-        <v>80.03597122302158</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="D397" s="4">
+        <v>80.035971223021576</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43480</v>
       </c>
@@ -5961,11 +6021,11 @@
       <c r="C398">
         <v>883</v>
       </c>
-      <c r="D398">
-        <v>85.27746319365798</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="D398" s="4">
+        <v>85.277463193657979</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43481</v>
       </c>
@@ -5975,11 +6035,11 @@
       <c r="C399">
         <v>803</v>
       </c>
-      <c r="D399">
-        <v>90.66002490660026</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="D399" s="4">
+        <v>90.660024906600256</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43482</v>
       </c>
@@ -5989,11 +6049,11 @@
       <c r="C400">
         <v>784</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="4">
         <v>91.58163265306122</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43483</v>
       </c>
@@ -6003,11 +6063,11 @@
       <c r="C401">
         <v>879</v>
       </c>
-      <c r="D401">
-        <v>87.5995449374289</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="D401" s="4">
+        <v>87.599544937428902</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43484</v>
       </c>
@@ -6017,11 +6077,11 @@
       <c r="C402">
         <v>454</v>
       </c>
-      <c r="D402">
-        <v>59.03083700440529</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="D402" s="4">
+        <v>59.030837004405292</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43486</v>
       </c>
@@ -6031,11 +6091,11 @@
       <c r="C403">
         <v>966</v>
       </c>
-      <c r="D403">
-        <v>81.36645962732919</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="D403" s="4">
+        <v>81.366459627329192</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43487</v>
       </c>
@@ -6045,11 +6105,11 @@
       <c r="C404">
         <v>823</v>
       </c>
-      <c r="D404">
-        <v>91.49453219927096</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="D404" s="4">
+        <v>91.494532199270964</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43488</v>
       </c>
@@ -6059,11 +6119,11 @@
       <c r="C405">
         <v>786</v>
       </c>
-      <c r="D405">
-        <v>87.91348600508906</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="D405" s="4">
+        <v>87.913486005089055</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43489</v>
       </c>
@@ -6073,11 +6133,11 @@
       <c r="C406">
         <v>834</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="4">
         <v>89.68824940047962</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43490</v>
       </c>
@@ -6087,11 +6147,11 @@
       <c r="C407">
         <v>788</v>
       </c>
-      <c r="D407">
-        <v>94.03553299492386</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="D407" s="4">
+        <v>94.035532994923855</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43491</v>
       </c>
@@ -6101,11 +6161,11 @@
       <c r="C408">
         <v>462</v>
       </c>
-      <c r="D408">
-        <v>84.84848484848484</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="D408" s="4">
+        <v>84.848484848484844</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43493</v>
       </c>
@@ -6115,11 +6175,11 @@
       <c r="C409">
         <v>937</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="4">
         <v>90.28815368196372</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43494</v>
       </c>
@@ -6129,11 +6189,11 @@
       <c r="C410">
         <v>836</v>
       </c>
-      <c r="D410">
-        <v>93.77990430622009</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="D410" s="4">
+        <v>93.779904306220089</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43495</v>
       </c>
@@ -6143,11 +6203,11 @@
       <c r="C411">
         <v>767</v>
       </c>
-      <c r="D411">
-        <v>95.69752281616688</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="D411" s="4">
+        <v>95.697522816166881</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43496</v>
       </c>
@@ -6157,11 +6217,11 @@
       <c r="C412">
         <v>715</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="4">
         <v>96.64335664335664</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43497</v>
       </c>
@@ -6171,11 +6231,11 @@
       <c r="C413">
         <v>768</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="4">
         <v>88.671875</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43498</v>
       </c>
@@ -6185,11 +6245,11 @@
       <c r="C414">
         <v>474</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="4">
         <v>61.18143459915612</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43500</v>
       </c>
@@ -6199,11 +6259,11 @@
       <c r="C415">
         <v>931</v>
       </c>
-      <c r="D415">
-        <v>91.40708915145005</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="D415" s="4">
+        <v>91.407089151450052</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43501</v>
       </c>
@@ -6213,11 +6273,11 @@
       <c r="C416">
         <v>746</v>
       </c>
-      <c r="D416">
-        <v>93.5656836461126</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="D416" s="4">
+        <v>93.565683646112603</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43502</v>
       </c>
@@ -6227,11 +6287,11 @@
       <c r="C417">
         <v>732</v>
       </c>
-      <c r="D417">
-        <v>93.85245901639344</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="D417" s="4">
+        <v>93.852459016393439</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43503</v>
       </c>
@@ -6241,11 +6301,11 @@
       <c r="C418">
         <v>684</v>
       </c>
-      <c r="D418">
-        <v>94.00584795321637</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="D418" s="4">
+        <v>94.005847953216374</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43504</v>
       </c>
@@ -6255,11 +6315,11 @@
       <c r="C419">
         <v>752</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="4">
         <v>87.63297872340425</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43505</v>
       </c>
@@ -6269,11 +6329,11 @@
       <c r="C420">
         <v>422</v>
       </c>
-      <c r="D420">
-        <v>93.8388625592417</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="D420" s="4">
+        <v>93.838862559241704</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43507</v>
       </c>
@@ -6283,11 +6343,11 @@
       <c r="C421">
         <v>944</v>
       </c>
-      <c r="D421">
-        <v>92.90254237288136</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+      <c r="D421" s="4">
+        <v>92.902542372881356</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43508</v>
       </c>
@@ -6297,11 +6357,11 @@
       <c r="C422">
         <v>753</v>
       </c>
-      <c r="D422">
-        <v>91.50066401062416</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="D422" s="4">
+        <v>91.500664010624163</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43509</v>
       </c>
@@ -6311,11 +6371,11 @@
       <c r="C423">
         <v>742</v>
       </c>
-      <c r="D423">
-        <v>93.26145552560646</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+      <c r="D423" s="4">
+        <v>93.261455525606465</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43510</v>
       </c>
@@ -6325,11 +6385,11 @@
       <c r="C424">
         <v>653</v>
       </c>
-      <c r="D424">
-        <v>94.02756508422665</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="D424" s="4">
+        <v>94.027565084226651</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43511</v>
       </c>
@@ -6339,11 +6399,11 @@
       <c r="C425">
         <v>651</v>
       </c>
-      <c r="D425">
-        <v>88.78648233486943</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="D425" s="4">
+        <v>88.786482334869433</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43512</v>
       </c>
@@ -6353,11 +6413,11 @@
       <c r="C426">
         <v>365</v>
       </c>
-      <c r="D426">
-        <v>91.23287671232876</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="D426" s="4">
+        <v>91.232876712328761</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43514</v>
       </c>
@@ -6367,11 +6427,11 @@
       <c r="C427">
         <v>815</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="4">
         <v>93.25153374233129</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43515</v>
       </c>
@@ -6381,11 +6441,11 @@
       <c r="C428">
         <v>683</v>
       </c>
-      <c r="D428">
-        <v>95.60761346998535</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
+      <c r="D428" s="4">
+        <v>95.607613469985353</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43516</v>
       </c>
@@ -6395,11 +6455,11 @@
       <c r="C429">
         <v>643</v>
       </c>
-      <c r="D429">
-        <v>94.71228615863141</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
+      <c r="D429" s="4">
+        <v>94.712286158631414</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43517</v>
       </c>
@@ -6409,11 +6469,11 @@
       <c r="C430">
         <v>628</v>
       </c>
-      <c r="D430">
-        <v>92.83439490445861</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
+      <c r="D430" s="4">
+        <v>92.834394904458605</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43518</v>
       </c>
@@ -6423,11 +6483,11 @@
       <c r="C431">
         <v>689</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="4">
         <v>90.13062409288824</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43519</v>
       </c>
@@ -6437,11 +6497,11 @@
       <c r="C432">
         <v>359</v>
       </c>
-      <c r="D432">
-        <v>92.47910863509749</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="D432" s="4">
+        <v>92.479108635097489</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43521</v>
       </c>
@@ -6451,11 +6511,11 @@
       <c r="C433">
         <v>804</v>
       </c>
-      <c r="D433">
-        <v>94.5273631840796</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="D433" s="4">
+        <v>94.527363184079604</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43522</v>
       </c>
@@ -6465,11 +6525,11 @@
       <c r="C434">
         <v>642</v>
       </c>
-      <c r="D434">
-        <v>95.01557632398755</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
+      <c r="D434" s="4">
+        <v>95.015576323987545</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43523</v>
       </c>
@@ -6479,11 +6539,11 @@
       <c r="C435">
         <v>610</v>
       </c>
-      <c r="D435">
-        <v>95.90163934426229</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="D435" s="4">
+        <v>95.901639344262293</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43524</v>
       </c>
@@ -6493,11 +6553,11 @@
       <c r="C436">
         <v>628</v>
       </c>
-      <c r="D436">
-        <v>87.26114649681529</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="D436" s="4">
+        <v>87.261146496815286</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43525</v>
       </c>
@@ -6507,11 +6567,11 @@
       <c r="C437">
         <v>577</v>
       </c>
-      <c r="D437">
-        <v>93.93414211438476</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="D437" s="4">
+        <v>93.934142114384755</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43526</v>
       </c>
@@ -6521,11 +6581,11 @@
       <c r="C438">
         <v>409</v>
       </c>
-      <c r="D438">
-        <v>72.61613691931541</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
+      <c r="D438" s="4">
+        <v>72.616136919315409</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43527</v>
       </c>
@@ -6535,11 +6595,11 @@
       <c r="C439">
         <v>29</v>
       </c>
-      <c r="D439">
-        <v>93.10344827586206</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="D439" s="4">
+        <v>93.103448275862064</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43528</v>
       </c>
@@ -6549,11 +6609,11 @@
       <c r="C440">
         <v>872</v>
       </c>
-      <c r="D440">
-        <v>92.77522935779817</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
+      <c r="D440" s="4">
+        <v>92.775229357798167</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43529</v>
       </c>
@@ -6563,11 +6623,11 @@
       <c r="C441">
         <v>739</v>
       </c>
-      <c r="D441">
-        <v>82.27334235453316</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="D441" s="4">
+        <v>82.273342354533156</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43530</v>
       </c>
@@ -6577,11 +6637,11 @@
       <c r="C442">
         <v>673</v>
       </c>
-      <c r="D442">
-        <v>88.55869242199108</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
+      <c r="D442" s="4">
+        <v>88.558692421991083</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43531</v>
       </c>
@@ -6591,11 +6651,11 @@
       <c r="C443">
         <v>638</v>
       </c>
-      <c r="D443">
-        <v>89.49843260188088</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
+      <c r="D443" s="4">
+        <v>89.498432601880879</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43532</v>
       </c>
@@ -6605,11 +6665,11 @@
       <c r="C444">
         <v>676</v>
       </c>
-      <c r="D444">
-        <v>85.94674556213018</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
+      <c r="D444" s="4">
+        <v>85.946745562130175</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43533</v>
       </c>
@@ -6619,11 +6679,11 @@
       <c r="C445">
         <v>426</v>
       </c>
-      <c r="D445">
-        <v>79.81220657276995</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
+      <c r="D445" s="4">
+        <v>79.812206572769952</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43534</v>
       </c>
@@ -6633,11 +6693,11 @@
       <c r="C446">
         <v>0</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43535</v>
       </c>
@@ -6647,11 +6707,11 @@
       <c r="C447">
         <v>807</v>
       </c>
-      <c r="D447">
-        <v>88.72366790582404</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
+      <c r="D447" s="4">
+        <v>88.723667905824044</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43536</v>
       </c>
@@ -6661,11 +6721,11 @@
       <c r="C448">
         <v>664</v>
       </c>
-      <c r="D448">
-        <v>87.8012048192771</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
+      <c r="D448" s="4">
+        <v>87.801204819277103</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43537</v>
       </c>
@@ -6675,11 +6735,11 @@
       <c r="C449">
         <v>660</v>
       </c>
-      <c r="D449">
-        <v>86.51515151515152</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="D449" s="4">
+        <v>86.515151515151516</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>43538</v>
       </c>
@@ -6689,11 +6749,11 @@
       <c r="C450">
         <v>638</v>
       </c>
-      <c r="D450">
-        <v>77.27272727272727</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
+      <c r="D450" s="4">
+        <v>77.272727272727266</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>43539</v>
       </c>
@@ -6703,11 +6763,11 @@
       <c r="C451">
         <v>615</v>
       </c>
-      <c r="D451">
-        <v>85.85365853658537</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
+      <c r="D451" s="4">
+        <v>85.853658536585371</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>43540</v>
       </c>
@@ -6717,11 +6777,11 @@
       <c r="C452">
         <v>426</v>
       </c>
-      <c r="D452">
-        <v>80.51643192488262</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+      <c r="D452" s="4">
+        <v>80.516431924882625</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>43542</v>
       </c>
@@ -6731,11 +6791,11 @@
       <c r="C453">
         <v>878</v>
       </c>
-      <c r="D453">
-        <v>79.49886104783599</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+      <c r="D453" s="4">
+        <v>79.498861047835987</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>43543</v>
       </c>
@@ -6745,11 +6805,11 @@
       <c r="C454">
         <v>672</v>
       </c>
-      <c r="D454">
-        <v>84.82142857142857</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
+      <c r="D454" s="4">
+        <v>84.821428571428569</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>43544</v>
       </c>
@@ -6759,11 +6819,11 @@
       <c r="C455">
         <v>633</v>
       </c>
-      <c r="D455">
-        <v>80.88467614533965</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
+      <c r="D455" s="4">
+        <v>80.884676145339654</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>43545</v>
       </c>
@@ -6773,11 +6833,11 @@
       <c r="C456">
         <v>567</v>
       </c>
-      <c r="D456">
-        <v>82.53968253968254</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
+      <c r="D456" s="4">
+        <v>82.539682539682545</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>43546</v>
       </c>
@@ -6787,11 +6847,11 @@
       <c r="C457">
         <v>569</v>
       </c>
-      <c r="D457">
-        <v>89.98242530755712</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
+      <c r="D457" s="4">
+        <v>89.982425307557122</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>43547</v>
       </c>
@@ -6801,11 +6861,11 @@
       <c r="C458">
         <v>307</v>
       </c>
-      <c r="D458">
-        <v>94.46254071661238</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
+      <c r="D458" s="4">
+        <v>94.462540716612381</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>43549</v>
       </c>
@@ -6815,11 +6875,11 @@
       <c r="C459">
         <v>805</v>
       </c>
-      <c r="D459">
-        <v>87.20496894409938</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
+      <c r="D459" s="4">
+        <v>87.204968944099377</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>43550</v>
       </c>
@@ -6829,11 +6889,11 @@
       <c r="C460">
         <v>697</v>
       </c>
-      <c r="D460">
-        <v>88.80918220946916</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
+      <c r="D460" s="4">
+        <v>88.809182209469157</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>43551</v>
       </c>
@@ -6843,11 +6903,11 @@
       <c r="C461">
         <v>570</v>
       </c>
-      <c r="D461">
-        <v>92.80701754385964</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
+      <c r="D461" s="4">
+        <v>92.807017543859644</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>43552</v>
       </c>
@@ -6857,11 +6917,11 @@
       <c r="C462">
         <v>594</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="4">
         <v>87.37373737373737</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>43553</v>
       </c>
@@ -6871,11 +6931,11 @@
       <c r="C463">
         <v>564</v>
       </c>
-      <c r="D463">
-        <v>91.31205673758865</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+      <c r="D463" s="4">
+        <v>91.312056737588648</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>43554</v>
       </c>
@@ -6885,11 +6945,11 @@
       <c r="C464">
         <v>239</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="4">
         <v>92.05020920502092</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>43555</v>
       </c>
@@ -6899,11 +6959,11 @@
       <c r="C465">
         <v>0</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>43556</v>
       </c>
@@ -6913,11 +6973,11 @@
       <c r="C466">
         <v>657</v>
       </c>
-      <c r="D466">
-        <v>85.08371385083714</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
+      <c r="D466" s="4">
+        <v>85.083713850837142</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>43557</v>
       </c>
@@ -6927,11 +6987,11 @@
       <c r="C467">
         <v>604</v>
       </c>
-      <c r="D467">
-        <v>85.43046357615894</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="D467" s="4">
+        <v>85.430463576158942</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>43558</v>
       </c>
@@ -6941,11 +7001,11 @@
       <c r="C468">
         <v>561</v>
       </c>
-      <c r="D468">
-        <v>90.73083778966132</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="D468" s="4">
+        <v>90.730837789661322</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>43559</v>
       </c>
@@ -6955,11 +7015,11 @@
       <c r="C469">
         <v>600</v>
       </c>
-      <c r="D469">
-        <v>89.66666666666667</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="D469" s="4">
+        <v>89.666666666666671</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>43560</v>
       </c>
@@ -6969,11 +7029,11 @@
       <c r="C470">
         <v>620</v>
       </c>
-      <c r="D470">
-        <v>82.90322580645162</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="D470" s="4">
+        <v>82.903225806451616</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>43561</v>
       </c>
@@ -6983,11 +7043,11 @@
       <c r="C471">
         <v>327</v>
       </c>
-      <c r="D471">
-        <v>81.34556574923548</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
+      <c r="D471" s="4">
+        <v>81.345565749235476</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>43563</v>
       </c>
@@ -6997,11 +7057,11 @@
       <c r="C472">
         <v>778</v>
       </c>
-      <c r="D472">
-        <v>89.46015424164524</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
+      <c r="D472" s="4">
+        <v>89.460154241645242</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>43564</v>
       </c>
@@ -7011,11 +7071,11 @@
       <c r="C473">
         <v>561</v>
       </c>
-      <c r="D473">
-        <v>88.05704099821747</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="D473" s="4">
+        <v>88.057040998217474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>43565</v>
       </c>
@@ -7025,11 +7085,11 @@
       <c r="C474">
         <v>607</v>
       </c>
-      <c r="D474">
-        <v>82.70181219110378</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="D474" s="4">
+        <v>82.701812191103784</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>43566</v>
       </c>
@@ -7039,11 +7099,11 @@
       <c r="C475">
         <v>548</v>
       </c>
-      <c r="D475">
-        <v>92.7007299270073</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
+      <c r="D475" s="4">
+        <v>92.700729927007302</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>43567</v>
       </c>
@@ -7053,11 +7113,11 @@
       <c r="C476">
         <v>578</v>
       </c>
-      <c r="D476">
-        <v>82.8719723183391</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+      <c r="D476" s="4">
+        <v>82.871972318339104</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>43568</v>
       </c>
@@ -7067,11 +7127,11 @@
       <c r="C477">
         <v>356</v>
       </c>
-      <c r="D477">
-        <v>81.46067415730337</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="D477" s="4">
+        <v>81.460674157303373</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>43570</v>
       </c>
@@ -7081,11 +7141,11 @@
       <c r="C478">
         <v>697</v>
       </c>
-      <c r="D478">
-        <v>74.74892395982783</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="D478" s="4">
+        <v>74.748923959827835</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>43571</v>
       </c>
@@ -7095,11 +7155,11 @@
       <c r="C479">
         <v>826</v>
       </c>
-      <c r="D479">
-        <v>75.66585956416465</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="D479" s="4">
+        <v>75.665859564164649</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>43572</v>
       </c>
@@ -7109,11 +7169,11 @@
       <c r="C480">
         <v>578</v>
       </c>
-      <c r="D480">
-        <v>71.280276816609</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+      <c r="D480" s="4">
+        <v>71.280276816609003</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>43573</v>
       </c>
@@ -7123,11 +7183,11 @@
       <c r="C481">
         <v>591</v>
       </c>
-      <c r="D481">
-        <v>76.14213197969544</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="D481" s="4">
+        <v>76.142131979695435</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>43574</v>
       </c>
@@ -7137,11 +7197,11 @@
       <c r="C482">
         <v>0</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>43575</v>
       </c>
@@ -7151,11 +7211,11 @@
       <c r="C483">
         <v>283</v>
       </c>
-      <c r="D483">
-        <v>75.97173144876325</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
+      <c r="D483" s="4">
+        <v>75.971731448763251</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>43578</v>
       </c>
@@ -7165,11 +7225,11 @@
       <c r="C484">
         <v>777</v>
       </c>
-      <c r="D484">
-        <v>68.08236808236808</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+      <c r="D484" s="4">
+        <v>68.082368082368077</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>43579</v>
       </c>
@@ -7179,11 +7239,11 @@
       <c r="C485">
         <v>689</v>
       </c>
-      <c r="D485">
-        <v>54.28156748911466</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="D485" s="4">
+        <v>54.281567489114657</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>43580</v>
       </c>
@@ -7193,11 +7253,11 @@
       <c r="C486">
         <v>659</v>
       </c>
-      <c r="D486">
-        <v>63.58118361153262</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
+      <c r="D486" s="4">
+        <v>63.581183611532623</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>43581</v>
       </c>
@@ -7207,7 +7267,7 @@
       <c r="C487">
         <v>0</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="4">
         <v>0</v>
       </c>
     </row>
